--- a/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.323534192569674</v>
+        <v>2.323534192569682</v>
       </c>
       <c r="D2">
-        <v>3.167448848060336</v>
+        <v>3.167448848060384</v>
       </c>
       <c r="E2">
-        <v>6.428483480037658</v>
+        <v>6.428483480037607</v>
       </c>
       <c r="F2">
-        <v>38.46951342349386</v>
+        <v>38.46951342349383</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>28.1873641084064</v>
+        <v>28.18736410840638</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>61.84641246142021</v>
+        <v>61.84641246142017</v>
       </c>
       <c r="K2">
-        <v>5.272842508532168</v>
+        <v>5.272842508532107</v>
       </c>
       <c r="L2">
         <v>38.96720528435294</v>
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.096667957360133</v>
+        <v>2.096667957360134</v>
       </c>
       <c r="D3">
-        <v>2.697167531455925</v>
+        <v>2.697167531455881</v>
       </c>
       <c r="E3">
-        <v>6.280224312424123</v>
+        <v>6.280224312424161</v>
       </c>
       <c r="F3">
-        <v>35.13372411168687</v>
+        <v>35.13372411168692</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.65847235056906</v>
+        <v>25.6584723505691</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>57.28800855299107</v>
       </c>
       <c r="K3">
-        <v>5.274711078723154</v>
+        <v>5.274711078723173</v>
       </c>
       <c r="L3">
         <v>36.07781673074943</v>
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.960112512379547</v>
+        <v>1.960112512379676</v>
       </c>
       <c r="D4">
-        <v>2.417487529898007</v>
+        <v>2.417487529897971</v>
       </c>
       <c r="E4">
-        <v>6.192303909811882</v>
+        <v>6.192303909811891</v>
       </c>
       <c r="F4">
-        <v>33.11804207528051</v>
+        <v>33.11804207528048</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.12608540665126</v>
+        <v>24.12608540665125</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>54.37751591567782</v>
       </c>
       <c r="K4">
-        <v>5.282159574789825</v>
+        <v>5.282159574789803</v>
       </c>
       <c r="L4">
-        <v>34.23570371309837</v>
+        <v>34.23570371309835</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.904906884384545</v>
+        <v>1.904906884384813</v>
       </c>
       <c r="D5">
-        <v>2.363852080978019</v>
+        <v>2.363852080978102</v>
       </c>
       <c r="E5">
-        <v>6.157234252253747</v>
+        <v>6.157234252253774</v>
       </c>
       <c r="F5">
-        <v>32.3568112001912</v>
+        <v>32.35681120019125</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.65181819568042</v>
+        <v>23.65181819568046</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>53.16159985671675</v>
+        <v>53.16159985671673</v>
       </c>
       <c r="K5">
-        <v>5.28665011151954</v>
+        <v>5.286650111519585</v>
       </c>
       <c r="L5">
-        <v>33.46672593867621</v>
+        <v>33.4667259386762</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.895760341254957</v>
+        <v>1.895760341254692</v>
       </c>
       <c r="D6">
-        <v>2.369911238869328</v>
+        <v>2.369911238869343</v>
       </c>
       <c r="E6">
-        <v>6.15145628361187</v>
+        <v>6.151456283611776</v>
       </c>
       <c r="F6">
-        <v>32.23938216927172</v>
+        <v>32.2393821692717</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>52.95784671239288</v>
       </c>
       <c r="K6">
-        <v>5.287480225971568</v>
+        <v>5.287480225971517</v>
       </c>
       <c r="L6">
         <v>33.33790093594174</v>
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.959366494783502</v>
+        <v>1.959366494783632</v>
       </c>
       <c r="D7">
-        <v>2.415969855954342</v>
+        <v>2.415969855954336</v>
       </c>
       <c r="E7">
-        <v>6.191827900255571</v>
+        <v>6.191827900255578</v>
       </c>
       <c r="F7">
-        <v>33.10702790520134</v>
+        <v>33.10702790520143</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.11770112358187</v>
+        <v>24.11770112358192</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>54.3612407504998</v>
+        <v>54.36124075049988</v>
       </c>
       <c r="K7">
-        <v>5.282214400835294</v>
+        <v>5.282214400835274</v>
       </c>
       <c r="L7">
-        <v>34.22540855840835</v>
+        <v>34.22540855840841</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.244576878742811</v>
+        <v>2.244576878743082</v>
       </c>
       <c r="D8">
-        <v>3.003206287484737</v>
+        <v>3.00320628748463</v>
       </c>
       <c r="E8">
-        <v>6.376699972427589</v>
+        <v>6.376699972427573</v>
       </c>
       <c r="F8">
         <v>37.31138518818469</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.31021748246481</v>
+        <v>27.31021748246478</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>60.29665860317083</v>
+        <v>60.29665860317072</v>
       </c>
       <c r="K8">
-        <v>5.272094851159163</v>
+        <v>5.272094851159147</v>
       </c>
       <c r="L8">
-        <v>37.98427331580073</v>
+        <v>37.98427331580066</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.840134810337535</v>
+        <v>2.840134810337398</v>
       </c>
       <c r="D9">
-        <v>4.248376091059261</v>
+        <v>4.248376091059362</v>
       </c>
       <c r="E9">
-        <v>6.765780639530178</v>
+        <v>6.765780639530113</v>
       </c>
       <c r="F9">
-        <v>45.93341652006085</v>
+        <v>45.93341652006095</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>33.82607611432024</v>
+        <v>33.82607611432034</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>71.15211525338702</v>
+        <v>71.15211525338709</v>
       </c>
       <c r="K9">
-        <v>5.339130553438666</v>
+        <v>5.339130553438651</v>
       </c>
       <c r="L9">
-        <v>44.88365544799082</v>
+        <v>44.88365544799088</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.328190086303084</v>
+        <v>3.328190086303217</v>
       </c>
       <c r="D10">
-        <v>5.270019807948894</v>
+        <v>5.270019807948953</v>
       </c>
       <c r="E10">
-        <v>7.072200787941399</v>
+        <v>7.072200787941374</v>
       </c>
       <c r="F10">
-        <v>52.76550221613559</v>
+        <v>52.76550221613561</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>78.84134453021015</v>
+        <v>78.84134453021024</v>
       </c>
       <c r="K10">
-        <v>5.904082607283103</v>
+        <v>5.904082607283112</v>
       </c>
       <c r="L10">
-        <v>49.79344602471824</v>
+        <v>49.7934460247183</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.571475099573849</v>
+        <v>3.571475099573979</v>
       </c>
       <c r="D11">
-        <v>5.777514024673991</v>
+        <v>5.777514024674056</v>
       </c>
       <c r="E11">
-        <v>7.217820009794439</v>
+        <v>7.217820009794475</v>
       </c>
       <c r="F11">
-        <v>56.08659360473188</v>
+        <v>56.08659360473208</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>41.47670999150905</v>
+        <v>41.47670999150922</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>82.34387605095395</v>
       </c>
       <c r="K11">
-        <v>6.160748317459529</v>
+        <v>6.160748317459483</v>
       </c>
       <c r="L11">
-        <v>52.0373053739265</v>
+        <v>52.03730537392649</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -798,31 +798,31 @@
         <v>3.668048569523823</v>
       </c>
       <c r="D12">
-        <v>5.978523627250854</v>
+        <v>5.978523627250859</v>
       </c>
       <c r="E12">
-        <v>7.2986356059907</v>
+        <v>7.298635605990706</v>
       </c>
       <c r="F12">
-        <v>57.38937280022567</v>
+        <v>57.38937280022529</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42.45776507146429</v>
+        <v>42.45776507146402</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>83.67961946574441</v>
+        <v>83.67961946574434</v>
       </c>
       <c r="K12">
-        <v>6.258461752440262</v>
+        <v>6.258461752440268</v>
       </c>
       <c r="L12">
-        <v>52.89438988734969</v>
+        <v>52.89438988734963</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.647022359373274</v>
+        <v>3.647022359373143</v>
       </c>
       <c r="D13">
-        <v>5.934782313645913</v>
+        <v>5.934782313645727</v>
       </c>
       <c r="E13">
-        <v>7.2763187754506</v>
+        <v>7.276318775450619</v>
       </c>
       <c r="F13">
-        <v>57.10647694257575</v>
+        <v>57.10647694257553</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42.24473541626401</v>
+        <v>42.24473541626381</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>83.39134060610174</v>
+        <v>83.39134060610165</v>
       </c>
       <c r="K13">
         <v>6.237382609573207</v>
       </c>
       <c r="L13">
-        <v>52.70934879675039</v>
+        <v>52.7093487967503</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.579320747242645</v>
+        <v>3.579320747242777</v>
       </c>
       <c r="D14">
-        <v>5.793854027130593</v>
+        <v>5.793854027130642</v>
       </c>
       <c r="E14">
-        <v>7.222425455414713</v>
+        <v>7.222425455414708</v>
       </c>
       <c r="F14">
-        <v>56.19276005070362</v>
+        <v>56.19276005070352</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41.55666058468819</v>
+        <v>41.5566605846881</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>82.45351521128845</v>
+        <v>82.45351521128849</v>
       </c>
       <c r="K14">
-        <v>6.168772730135916</v>
+        <v>6.168772730135959</v>
       </c>
       <c r="L14">
-        <v>52.10762662972203</v>
+        <v>52.10762662972205</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.538483226326312</v>
+        <v>3.538483226326573</v>
       </c>
       <c r="D15">
-        <v>5.708783643292171</v>
+        <v>5.708783643292272</v>
       </c>
       <c r="E15">
-        <v>7.198389776363237</v>
+        <v>7.198389776363288</v>
       </c>
       <c r="F15">
-        <v>55.6395140260116</v>
+        <v>55.6395140260114</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41.1400234384828</v>
+        <v>41.14002343848265</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>81.880623083797</v>
       </c>
       <c r="K15">
-        <v>6.126835760039034</v>
+        <v>6.126835760039047</v>
       </c>
       <c r="L15">
-        <v>51.7402369364813</v>
+        <v>51.74023693648131</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.31282347163835</v>
+        <v>3.312823471638218</v>
       </c>
       <c r="D16">
-        <v>5.237916085096721</v>
+        <v>5.237916085096744</v>
       </c>
       <c r="E16">
-        <v>7.062827611167435</v>
+        <v>7.062827611167465</v>
       </c>
       <c r="F16">
-        <v>52.55384035900189</v>
+        <v>52.55384035900216</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38.81595933476106</v>
+        <v>38.81595933476129</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>78.61320286022988</v>
+        <v>78.61320286022993</v>
       </c>
       <c r="K16">
-        <v>5.887345714607271</v>
+        <v>5.887345714607218</v>
       </c>
       <c r="L16">
-        <v>49.64746009664102</v>
+        <v>49.64746009664106</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,31 +988,31 @@
         <v>3.180641289928182</v>
       </c>
       <c r="D17">
-        <v>4.961554749578772</v>
+        <v>4.961554749578831</v>
       </c>
       <c r="E17">
-        <v>6.981398811623234</v>
+        <v>6.981398811623222</v>
       </c>
       <c r="F17">
-        <v>50.72384215402857</v>
+        <v>50.72384215402877</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37.43727769743271</v>
+        <v>37.43727769743284</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>76.61506666957251</v>
+        <v>76.6150666695726</v>
       </c>
       <c r="K17">
-        <v>5.740679520044911</v>
+        <v>5.740679520044946</v>
       </c>
       <c r="L17">
-        <v>48.36971849265389</v>
+        <v>48.36971849265394</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.106505877220333</v>
+        <v>3.10650587722033</v>
       </c>
       <c r="D18">
-        <v>4.806409274411586</v>
+        <v>4.806409274411513</v>
       </c>
       <c r="E18">
-        <v>6.935130323542685</v>
+        <v>6.935130323542721</v>
       </c>
       <c r="F18">
-        <v>49.69018500170456</v>
+        <v>49.69018500170471</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36.65837464792492</v>
+        <v>36.65837464792503</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>75.46554874003934</v>
+        <v>75.46554874003938</v>
       </c>
       <c r="K18">
-        <v>5.656245972690069</v>
+        <v>5.656245972690051</v>
       </c>
       <c r="L18">
-        <v>47.63531151547101</v>
+        <v>47.63531151547107</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.081697089425647</v>
+        <v>3.081697089425783</v>
       </c>
       <c r="D19">
-        <v>4.754470932446602</v>
+        <v>4.754470932446536</v>
       </c>
       <c r="E19">
-        <v>6.919556347524863</v>
+        <v>6.91955634752498</v>
       </c>
       <c r="F19">
-        <v>49.34311382918955</v>
+        <v>49.34311382918963</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36.39681037383644</v>
+        <v>36.39681037383647</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>75.0760907155733</v>
+        <v>75.07609071557343</v>
       </c>
       <c r="K19">
-        <v>5.627631443981375</v>
+        <v>5.627631443981361</v>
       </c>
       <c r="L19">
-        <v>47.38660163934003</v>
+        <v>47.38660163934008</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.194508354038587</v>
+        <v>3.194508354038451</v>
       </c>
       <c r="D20">
-        <v>4.99056390717454</v>
+        <v>4.990563907174423</v>
       </c>
       <c r="E20">
-        <v>6.990006938505687</v>
+        <v>6.990006938505671</v>
       </c>
       <c r="F20">
-        <v>50.91660727604208</v>
+        <v>50.91660727604197</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37.5825195675222</v>
+        <v>37.58251956752212</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>76.82774518326744</v>
+        <v>76.82774518326737</v>
       </c>
       <c r="K20">
-        <v>5.756296735894997</v>
+        <v>5.756296735895021</v>
       </c>
       <c r="L20">
-        <v>48.50564806843224</v>
+        <v>48.50564806843219</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.59907120498284</v>
+        <v>3.599071204982839</v>
       </c>
       <c r="D21">
-        <v>5.834980303862096</v>
+        <v>5.834980303862041</v>
       </c>
       <c r="E21">
-        <v>7.233993096513093</v>
+        <v>7.233993096513109</v>
       </c>
       <c r="F21">
-        <v>56.45976361476581</v>
+        <v>56.45976361476566</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>41.75773064433066</v>
+        <v>41.75773064433056</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>82.72863186816292</v>
+        <v>82.72863186816286</v>
       </c>
       <c r="K21">
-        <v>6.188905282682492</v>
+        <v>6.188905282682526</v>
       </c>
       <c r="L21">
-        <v>52.28410590288086</v>
+        <v>52.28410590288083</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.890631591060688</v>
+        <v>3.890631591060683</v>
       </c>
       <c r="D22">
-        <v>6.440740293136477</v>
+        <v>6.440740293136013</v>
       </c>
       <c r="E22">
         <v>7.52613623008133</v>
       </c>
       <c r="F22">
-        <v>60.35873245869302</v>
+        <v>60.35873245869212</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>44.69370860478956</v>
+        <v>44.69370860478878</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>86.64764305844224</v>
+        <v>86.64764305844184</v>
       </c>
       <c r="K22">
-        <v>6.475139511683469</v>
+        <v>6.475139511683488</v>
       </c>
       <c r="L22">
-        <v>54.80170931088474</v>
+        <v>54.80170931088448</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.731873223507612</v>
+        <v>3.73187322350788</v>
       </c>
       <c r="D23">
-        <v>6.111218896953763</v>
+        <v>6.111218896953706</v>
       </c>
       <c r="E23">
-        <v>7.365491896494923</v>
+        <v>7.365491896494945</v>
       </c>
       <c r="F23">
-        <v>58.24555472141631</v>
+        <v>58.24555472141655</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>43.10248614524606</v>
+        <v>43.10248614524616</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>84.5461762636057</v>
+        <v>84.5461762636058</v>
       </c>
       <c r="K23">
-        <v>6.321791751377972</v>
+        <v>6.321791751378003</v>
       </c>
       <c r="L23">
-        <v>53.45084036331087</v>
+        <v>53.45084036331092</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.188233361729816</v>
+        <v>3.188233361729814</v>
       </c>
       <c r="D24">
-        <v>4.977437405113292</v>
+        <v>4.977437405113284</v>
       </c>
       <c r="E24">
-        <v>6.986113519964713</v>
+        <v>6.986113519964679</v>
       </c>
       <c r="F24">
-        <v>50.82940173214759</v>
+        <v>50.82940173214681</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37.51681373255921</v>
+        <v>37.51681373255861</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>76.73159620008128</v>
+        <v>76.73159620008096</v>
       </c>
       <c r="K24">
-        <v>5.749236584368076</v>
+        <v>5.74923658436811</v>
       </c>
       <c r="L24">
-        <v>48.44419413725812</v>
+        <v>48.44419413725788</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.672742771575864</v>
+        <v>2.672742771575733</v>
       </c>
       <c r="D25">
-        <v>3.897557427762725</v>
+        <v>3.89755742776273</v>
       </c>
       <c r="E25">
-        <v>6.657339741312551</v>
+        <v>6.657339741312485</v>
       </c>
       <c r="F25">
-        <v>43.53921608612459</v>
+        <v>43.53921608612414</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32.01944199644185</v>
+        <v>32.01944199644154</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>68.28284340126409</v>
+        <v>68.28284340126406</v>
       </c>
       <c r="K25">
-        <v>5.29202509695441</v>
+        <v>5.292025096954369</v>
       </c>
       <c r="L25">
         <v>43.05665335963222</v>

--- a/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.323534192569682</v>
+        <v>2.323534192569674</v>
       </c>
       <c r="D2">
-        <v>3.167448848060384</v>
+        <v>3.167448848060336</v>
       </c>
       <c r="E2">
-        <v>6.428483480037607</v>
+        <v>6.428483480037658</v>
       </c>
       <c r="F2">
-        <v>38.46951342349383</v>
+        <v>38.46951342349386</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>28.18736410840638</v>
+        <v>28.1873641084064</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>61.84641246142017</v>
+        <v>61.84641246142021</v>
       </c>
       <c r="K2">
-        <v>5.272842508532107</v>
+        <v>5.272842508532168</v>
       </c>
       <c r="L2">
         <v>38.96720528435294</v>
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.096667957360134</v>
+        <v>2.096667957360133</v>
       </c>
       <c r="D3">
-        <v>2.697167531455881</v>
+        <v>2.697167531455925</v>
       </c>
       <c r="E3">
-        <v>6.280224312424161</v>
+        <v>6.280224312424123</v>
       </c>
       <c r="F3">
-        <v>35.13372411168692</v>
+        <v>35.13372411168687</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.6584723505691</v>
+        <v>25.65847235056906</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>57.28800855299107</v>
       </c>
       <c r="K3">
-        <v>5.274711078723173</v>
+        <v>5.274711078723154</v>
       </c>
       <c r="L3">
         <v>36.07781673074943</v>
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.960112512379676</v>
+        <v>1.960112512379547</v>
       </c>
       <c r="D4">
-        <v>2.417487529897971</v>
+        <v>2.417487529898007</v>
       </c>
       <c r="E4">
-        <v>6.192303909811891</v>
+        <v>6.192303909811882</v>
       </c>
       <c r="F4">
-        <v>33.11804207528048</v>
+        <v>33.11804207528051</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.12608540665125</v>
+        <v>24.12608540665126</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>54.37751591567782</v>
       </c>
       <c r="K4">
-        <v>5.282159574789803</v>
+        <v>5.282159574789825</v>
       </c>
       <c r="L4">
-        <v>34.23570371309835</v>
+        <v>34.23570371309837</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.904906884384813</v>
+        <v>1.904906884384545</v>
       </c>
       <c r="D5">
-        <v>2.363852080978102</v>
+        <v>2.363852080978019</v>
       </c>
       <c r="E5">
-        <v>6.157234252253774</v>
+        <v>6.157234252253747</v>
       </c>
       <c r="F5">
-        <v>32.35681120019125</v>
+        <v>32.3568112001912</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.65181819568046</v>
+        <v>23.65181819568042</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>53.16159985671673</v>
+        <v>53.16159985671675</v>
       </c>
       <c r="K5">
-        <v>5.286650111519585</v>
+        <v>5.28665011151954</v>
       </c>
       <c r="L5">
-        <v>33.4667259386762</v>
+        <v>33.46672593867621</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.895760341254692</v>
+        <v>1.895760341254957</v>
       </c>
       <c r="D6">
-        <v>2.369911238869343</v>
+        <v>2.369911238869328</v>
       </c>
       <c r="E6">
-        <v>6.151456283611776</v>
+        <v>6.15145628361187</v>
       </c>
       <c r="F6">
-        <v>32.2393821692717</v>
+        <v>32.23938216927172</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>52.95784671239288</v>
       </c>
       <c r="K6">
-        <v>5.287480225971517</v>
+        <v>5.287480225971568</v>
       </c>
       <c r="L6">
         <v>33.33790093594174</v>
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.959366494783632</v>
+        <v>1.959366494783502</v>
       </c>
       <c r="D7">
-        <v>2.415969855954336</v>
+        <v>2.415969855954342</v>
       </c>
       <c r="E7">
-        <v>6.191827900255578</v>
+        <v>6.191827900255571</v>
       </c>
       <c r="F7">
-        <v>33.10702790520143</v>
+        <v>33.10702790520134</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.11770112358192</v>
+        <v>24.11770112358187</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>54.36124075049988</v>
+        <v>54.3612407504998</v>
       </c>
       <c r="K7">
-        <v>5.282214400835274</v>
+        <v>5.282214400835294</v>
       </c>
       <c r="L7">
-        <v>34.22540855840841</v>
+        <v>34.22540855840835</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.244576878743082</v>
+        <v>2.244576878742811</v>
       </c>
       <c r="D8">
-        <v>3.00320628748463</v>
+        <v>3.003206287484737</v>
       </c>
       <c r="E8">
-        <v>6.376699972427573</v>
+        <v>6.376699972427589</v>
       </c>
       <c r="F8">
         <v>37.31138518818469</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.31021748246478</v>
+        <v>27.31021748246481</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>60.29665860317072</v>
+        <v>60.29665860317083</v>
       </c>
       <c r="K8">
-        <v>5.272094851159147</v>
+        <v>5.272094851159163</v>
       </c>
       <c r="L8">
-        <v>37.98427331580066</v>
+        <v>37.98427331580073</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.840134810337398</v>
+        <v>2.840134810337535</v>
       </c>
       <c r="D9">
-        <v>4.248376091059362</v>
+        <v>4.248376091059261</v>
       </c>
       <c r="E9">
-        <v>6.765780639530113</v>
+        <v>6.765780639530178</v>
       </c>
       <c r="F9">
-        <v>45.93341652006095</v>
+        <v>45.93341652006085</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>33.82607611432034</v>
+        <v>33.82607611432024</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>71.15211525338709</v>
+        <v>71.15211525338702</v>
       </c>
       <c r="K9">
-        <v>5.339130553438651</v>
+        <v>5.339130553438666</v>
       </c>
       <c r="L9">
-        <v>44.88365544799088</v>
+        <v>44.88365544799082</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.328190086303217</v>
+        <v>3.328190086303084</v>
       </c>
       <c r="D10">
-        <v>5.270019807948953</v>
+        <v>5.270019807948894</v>
       </c>
       <c r="E10">
-        <v>7.072200787941374</v>
+        <v>7.072200787941399</v>
       </c>
       <c r="F10">
-        <v>52.76550221613561</v>
+        <v>52.76550221613559</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>78.84134453021024</v>
+        <v>78.84134453021015</v>
       </c>
       <c r="K10">
-        <v>5.904082607283112</v>
+        <v>5.904082607283103</v>
       </c>
       <c r="L10">
-        <v>49.7934460247183</v>
+        <v>49.79344602471824</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.571475099573979</v>
+        <v>3.571475099573849</v>
       </c>
       <c r="D11">
-        <v>5.777514024674056</v>
+        <v>5.777514024673991</v>
       </c>
       <c r="E11">
-        <v>7.217820009794475</v>
+        <v>7.217820009794439</v>
       </c>
       <c r="F11">
-        <v>56.08659360473208</v>
+        <v>56.08659360473188</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>41.47670999150922</v>
+        <v>41.47670999150905</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>82.34387605095395</v>
       </c>
       <c r="K11">
-        <v>6.160748317459483</v>
+        <v>6.160748317459529</v>
       </c>
       <c r="L11">
-        <v>52.03730537392649</v>
+        <v>52.0373053739265</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -798,31 +798,31 @@
         <v>3.668048569523823</v>
       </c>
       <c r="D12">
-        <v>5.978523627250859</v>
+        <v>5.978523627250854</v>
       </c>
       <c r="E12">
-        <v>7.298635605990706</v>
+        <v>7.2986356059907</v>
       </c>
       <c r="F12">
-        <v>57.38937280022529</v>
+        <v>57.38937280022567</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42.45776507146402</v>
+        <v>42.45776507146429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>83.67961946574434</v>
+        <v>83.67961946574441</v>
       </c>
       <c r="K12">
-        <v>6.258461752440268</v>
+        <v>6.258461752440262</v>
       </c>
       <c r="L12">
-        <v>52.89438988734963</v>
+        <v>52.89438988734969</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.647022359373143</v>
+        <v>3.647022359373274</v>
       </c>
       <c r="D13">
-        <v>5.934782313645727</v>
+        <v>5.934782313645913</v>
       </c>
       <c r="E13">
-        <v>7.276318775450619</v>
+        <v>7.2763187754506</v>
       </c>
       <c r="F13">
-        <v>57.10647694257553</v>
+        <v>57.10647694257575</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42.24473541626381</v>
+        <v>42.24473541626401</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>83.39134060610165</v>
+        <v>83.39134060610174</v>
       </c>
       <c r="K13">
         <v>6.237382609573207</v>
       </c>
       <c r="L13">
-        <v>52.7093487967503</v>
+        <v>52.70934879675039</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.579320747242777</v>
+        <v>3.579320747242645</v>
       </c>
       <c r="D14">
-        <v>5.793854027130642</v>
+        <v>5.793854027130593</v>
       </c>
       <c r="E14">
-        <v>7.222425455414708</v>
+        <v>7.222425455414713</v>
       </c>
       <c r="F14">
-        <v>56.19276005070352</v>
+        <v>56.19276005070362</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41.5566605846881</v>
+        <v>41.55666058468819</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>82.45351521128849</v>
+        <v>82.45351521128845</v>
       </c>
       <c r="K14">
-        <v>6.168772730135959</v>
+        <v>6.168772730135916</v>
       </c>
       <c r="L14">
-        <v>52.10762662972205</v>
+        <v>52.10762662972203</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.538483226326573</v>
+        <v>3.538483226326312</v>
       </c>
       <c r="D15">
-        <v>5.708783643292272</v>
+        <v>5.708783643292171</v>
       </c>
       <c r="E15">
-        <v>7.198389776363288</v>
+        <v>7.198389776363237</v>
       </c>
       <c r="F15">
-        <v>55.6395140260114</v>
+        <v>55.6395140260116</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41.14002343848265</v>
+        <v>41.1400234384828</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>81.880623083797</v>
       </c>
       <c r="K15">
-        <v>6.126835760039047</v>
+        <v>6.126835760039034</v>
       </c>
       <c r="L15">
-        <v>51.74023693648131</v>
+        <v>51.7402369364813</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.312823471638218</v>
+        <v>3.31282347163835</v>
       </c>
       <c r="D16">
-        <v>5.237916085096744</v>
+        <v>5.237916085096721</v>
       </c>
       <c r="E16">
-        <v>7.062827611167465</v>
+        <v>7.062827611167435</v>
       </c>
       <c r="F16">
-        <v>52.55384035900216</v>
+        <v>52.55384035900189</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38.81595933476129</v>
+        <v>38.81595933476106</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>78.61320286022993</v>
+        <v>78.61320286022988</v>
       </c>
       <c r="K16">
-        <v>5.887345714607218</v>
+        <v>5.887345714607271</v>
       </c>
       <c r="L16">
-        <v>49.64746009664106</v>
+        <v>49.64746009664102</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,31 +988,31 @@
         <v>3.180641289928182</v>
       </c>
       <c r="D17">
-        <v>4.961554749578831</v>
+        <v>4.961554749578772</v>
       </c>
       <c r="E17">
-        <v>6.981398811623222</v>
+        <v>6.981398811623234</v>
       </c>
       <c r="F17">
-        <v>50.72384215402877</v>
+        <v>50.72384215402857</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37.43727769743284</v>
+        <v>37.43727769743271</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>76.6150666695726</v>
+        <v>76.61506666957251</v>
       </c>
       <c r="K17">
-        <v>5.740679520044946</v>
+        <v>5.740679520044911</v>
       </c>
       <c r="L17">
-        <v>48.36971849265394</v>
+        <v>48.36971849265389</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.10650587722033</v>
+        <v>3.106505877220333</v>
       </c>
       <c r="D18">
-        <v>4.806409274411513</v>
+        <v>4.806409274411586</v>
       </c>
       <c r="E18">
-        <v>6.935130323542721</v>
+        <v>6.935130323542685</v>
       </c>
       <c r="F18">
-        <v>49.69018500170471</v>
+        <v>49.69018500170456</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36.65837464792503</v>
+        <v>36.65837464792492</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>75.46554874003938</v>
+        <v>75.46554874003934</v>
       </c>
       <c r="K18">
-        <v>5.656245972690051</v>
+        <v>5.656245972690069</v>
       </c>
       <c r="L18">
-        <v>47.63531151547107</v>
+        <v>47.63531151547101</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.081697089425783</v>
+        <v>3.081697089425647</v>
       </c>
       <c r="D19">
-        <v>4.754470932446536</v>
+        <v>4.754470932446602</v>
       </c>
       <c r="E19">
-        <v>6.91955634752498</v>
+        <v>6.919556347524863</v>
       </c>
       <c r="F19">
-        <v>49.34311382918963</v>
+        <v>49.34311382918955</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36.39681037383647</v>
+        <v>36.39681037383644</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>75.07609071557343</v>
+        <v>75.0760907155733</v>
       </c>
       <c r="K19">
-        <v>5.627631443981361</v>
+        <v>5.627631443981375</v>
       </c>
       <c r="L19">
-        <v>47.38660163934008</v>
+        <v>47.38660163934003</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.194508354038451</v>
+        <v>3.194508354038587</v>
       </c>
       <c r="D20">
-        <v>4.990563907174423</v>
+        <v>4.99056390717454</v>
       </c>
       <c r="E20">
-        <v>6.990006938505671</v>
+        <v>6.990006938505687</v>
       </c>
       <c r="F20">
-        <v>50.91660727604197</v>
+        <v>50.91660727604208</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37.58251956752212</v>
+        <v>37.5825195675222</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>76.82774518326737</v>
+        <v>76.82774518326744</v>
       </c>
       <c r="K20">
-        <v>5.756296735895021</v>
+        <v>5.756296735894997</v>
       </c>
       <c r="L20">
-        <v>48.50564806843219</v>
+        <v>48.50564806843224</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.599071204982839</v>
+        <v>3.59907120498284</v>
       </c>
       <c r="D21">
-        <v>5.834980303862041</v>
+        <v>5.834980303862096</v>
       </c>
       <c r="E21">
-        <v>7.233993096513109</v>
+        <v>7.233993096513093</v>
       </c>
       <c r="F21">
-        <v>56.45976361476566</v>
+        <v>56.45976361476581</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>41.75773064433056</v>
+        <v>41.75773064433066</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>82.72863186816286</v>
+        <v>82.72863186816292</v>
       </c>
       <c r="K21">
-        <v>6.188905282682526</v>
+        <v>6.188905282682492</v>
       </c>
       <c r="L21">
-        <v>52.28410590288083</v>
+        <v>52.28410590288086</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.890631591060683</v>
+        <v>3.890631591060688</v>
       </c>
       <c r="D22">
-        <v>6.440740293136013</v>
+        <v>6.440740293136477</v>
       </c>
       <c r="E22">
         <v>7.52613623008133</v>
       </c>
       <c r="F22">
-        <v>60.35873245869212</v>
+        <v>60.35873245869302</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>44.69370860478878</v>
+        <v>44.69370860478956</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>86.64764305844184</v>
+        <v>86.64764305844224</v>
       </c>
       <c r="K22">
-        <v>6.475139511683488</v>
+        <v>6.475139511683469</v>
       </c>
       <c r="L22">
-        <v>54.80170931088448</v>
+        <v>54.80170931088474</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.73187322350788</v>
+        <v>3.731873223507612</v>
       </c>
       <c r="D23">
-        <v>6.111218896953706</v>
+        <v>6.111218896953763</v>
       </c>
       <c r="E23">
-        <v>7.365491896494945</v>
+        <v>7.365491896494923</v>
       </c>
       <c r="F23">
-        <v>58.24555472141655</v>
+        <v>58.24555472141631</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>43.10248614524616</v>
+        <v>43.10248614524606</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>84.5461762636058</v>
+        <v>84.5461762636057</v>
       </c>
       <c r="K23">
-        <v>6.321791751378003</v>
+        <v>6.321791751377972</v>
       </c>
       <c r="L23">
-        <v>53.45084036331092</v>
+        <v>53.45084036331087</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.188233361729814</v>
+        <v>3.188233361729816</v>
       </c>
       <c r="D24">
-        <v>4.977437405113284</v>
+        <v>4.977437405113292</v>
       </c>
       <c r="E24">
-        <v>6.986113519964679</v>
+        <v>6.986113519964713</v>
       </c>
       <c r="F24">
-        <v>50.82940173214681</v>
+        <v>50.82940173214759</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37.51681373255861</v>
+        <v>37.51681373255921</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>76.73159620008096</v>
+        <v>76.73159620008128</v>
       </c>
       <c r="K24">
-        <v>5.74923658436811</v>
+        <v>5.749236584368076</v>
       </c>
       <c r="L24">
-        <v>48.44419413725788</v>
+        <v>48.44419413725812</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.672742771575733</v>
+        <v>2.672742771575864</v>
       </c>
       <c r="D25">
-        <v>3.89755742776273</v>
+        <v>3.897557427762725</v>
       </c>
       <c r="E25">
-        <v>6.657339741312485</v>
+        <v>6.657339741312551</v>
       </c>
       <c r="F25">
-        <v>43.53921608612414</v>
+        <v>43.53921608612459</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32.01944199644154</v>
+        <v>32.01944199644185</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>68.28284340126406</v>
+        <v>68.28284340126409</v>
       </c>
       <c r="K25">
-        <v>5.292025096954369</v>
+        <v>5.29202509695441</v>
       </c>
       <c r="L25">
         <v>43.05665335963222</v>

--- a/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.323534192569674</v>
+        <v>2.169296242869119</v>
       </c>
       <c r="D2">
-        <v>3.167448848060336</v>
+        <v>3.021690995941855</v>
       </c>
       <c r="E2">
-        <v>6.428483480037658</v>
+        <v>6.335903045041509</v>
       </c>
       <c r="F2">
-        <v>38.46951342349386</v>
+        <v>38.24198135141242</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.96451621461353</v>
       </c>
       <c r="H2">
-        <v>28.1873641084064</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>27.98826956960158</v>
       </c>
       <c r="J2">
-        <v>61.84641246142021</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.272842508532168</v>
+        <v>61.64735938471141</v>
       </c>
       <c r="L2">
-        <v>38.96720528435294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>5.225259071470608</v>
+      </c>
+      <c r="M2">
+        <v>38.83278585995855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.096667957360133</v>
+        <v>1.942289033349</v>
       </c>
       <c r="D3">
-        <v>2.697167531455925</v>
+        <v>2.562185718868538</v>
       </c>
       <c r="E3">
-        <v>6.280224312424123</v>
+        <v>6.179269944400229</v>
       </c>
       <c r="F3">
-        <v>35.13372411168687</v>
+        <v>34.97490677412946</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.98845977538014</v>
       </c>
       <c r="H3">
-        <v>25.65847235056906</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>25.50844136300464</v>
       </c>
       <c r="J3">
-        <v>57.28800855299107</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.274711078723154</v>
+        <v>57.10453690543452</v>
       </c>
       <c r="L3">
-        <v>36.07781673074943</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>5.22331449249241</v>
+      </c>
+      <c r="M3">
+        <v>35.95295766312366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.960112512379547</v>
+        <v>1.805554463130536</v>
       </c>
       <c r="D4">
-        <v>2.417487529898007</v>
+        <v>2.45347020438223</v>
       </c>
       <c r="E4">
-        <v>6.192303909811882</v>
+        <v>6.085970590977763</v>
       </c>
       <c r="F4">
-        <v>33.11804207528051</v>
+        <v>33.07276718879469</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.003062625686854</v>
       </c>
       <c r="H4">
-        <v>24.12608540665126</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>24.17347469918689</v>
       </c>
       <c r="J4">
-        <v>54.37751591567782</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.282159574789825</v>
+        <v>54.20342829438383</v>
       </c>
       <c r="L4">
-        <v>34.23570371309837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>5.228439287969868</v>
+      </c>
+      <c r="M4">
+        <v>34.11651218394862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.904906884384545</v>
+        <v>1.750255663135956</v>
       </c>
       <c r="D5">
-        <v>2.363852080978019</v>
+        <v>2.494690961356917</v>
       </c>
       <c r="E5">
-        <v>6.157234252253747</v>
+        <v>6.04865365218222</v>
       </c>
       <c r="F5">
-        <v>32.3568112001912</v>
+        <v>32.38352310835193</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.009010429784812</v>
       </c>
       <c r="H5">
-        <v>23.65181819568042</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23.72183164919929</v>
       </c>
       <c r="J5">
-        <v>53.16159985671675</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5.28665011151954</v>
+        <v>52.99132256246079</v>
       </c>
       <c r="L5">
-        <v>33.46672593867621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>5.231987142841611</v>
+      </c>
+      <c r="M5">
+        <v>33.34981275032109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.895760341254957</v>
+        <v>1.741092500815345</v>
       </c>
       <c r="D6">
-        <v>2.369911238869328</v>
+        <v>2.502106452687757</v>
       </c>
       <c r="E6">
-        <v>6.15145628361187</v>
+        <v>6.042499320123126</v>
       </c>
       <c r="F6">
-        <v>32.23938216927172</v>
+        <v>32.26999556863141</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.009998443668776</v>
       </c>
       <c r="H6">
-        <v>23.57465798516648</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>23.64778473670154</v>
       </c>
       <c r="J6">
-        <v>52.95784671239288</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.287480225971568</v>
+        <v>52.78820209928864</v>
       </c>
       <c r="L6">
-        <v>33.33790093594174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>5.232660971247763</v>
+      </c>
+      <c r="M6">
+        <v>33.22136465589518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.959366494783502</v>
+        <v>1.804807267365121</v>
       </c>
       <c r="D7">
-        <v>2.415969855954342</v>
+        <v>2.453986134414009</v>
       </c>
       <c r="E7">
-        <v>6.191827900255571</v>
+        <v>6.085464491652056</v>
       </c>
       <c r="F7">
-        <v>33.10702790520134</v>
+        <v>33.063409563581</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.003142825880854</v>
       </c>
       <c r="H7">
-        <v>24.11770112358187</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>24.16731966403071</v>
       </c>
       <c r="J7">
-        <v>54.3612407504998</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>5.282214400835294</v>
+        <v>54.18720453483965</v>
       </c>
       <c r="L7">
-        <v>34.22540855840835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>5.228481383943603</v>
+      </c>
+      <c r="M7">
+        <v>34.10624785998682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.244576878742811</v>
+        <v>2.090311779871055</v>
       </c>
       <c r="D8">
-        <v>3.003206287484737</v>
+        <v>2.860835177408994</v>
       </c>
       <c r="E8">
-        <v>6.376699972427589</v>
+        <v>6.281283924152363</v>
       </c>
       <c r="F8">
-        <v>37.31138518818469</v>
+        <v>37.10670101776079</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.972806886194698</v>
       </c>
       <c r="H8">
-        <v>27.31021748246481</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>27.12742846663417</v>
       </c>
       <c r="J8">
-        <v>60.29665860317083</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5.272094851159163</v>
+        <v>60.103038017497</v>
       </c>
       <c r="L8">
-        <v>37.98427331580073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>5.223192985680098</v>
+      </c>
+      <c r="M8">
+        <v>37.85320606557636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.840134810337535</v>
+        <v>2.685485819774856</v>
       </c>
       <c r="D9">
-        <v>4.248376091059261</v>
+        <v>4.085790442739894</v>
       </c>
       <c r="E9">
-        <v>6.765780639530178</v>
+        <v>6.689783987624735</v>
       </c>
       <c r="F9">
-        <v>45.93341652006085</v>
+        <v>45.57583074877348</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.911271662609507</v>
       </c>
       <c r="H9">
-        <v>33.82607611432024</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>33.53405272216393</v>
       </c>
       <c r="J9">
-        <v>71.15211525338702</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>5.339130553438666</v>
+        <v>70.91659276879825</v>
       </c>
       <c r="L9">
-        <v>44.88365544799082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>5.365184648314095</v>
+      </c>
+      <c r="M9">
+        <v>44.7263291573981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.328190086303084</v>
+        <v>3.172110038001434</v>
       </c>
       <c r="D10">
-        <v>5.270019807948894</v>
+        <v>5.095057017310559</v>
       </c>
       <c r="E10">
-        <v>7.072200787941399</v>
+        <v>7.009039200678632</v>
       </c>
       <c r="F10">
-        <v>52.76550221613559</v>
+        <v>52.30208984722856</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.862375082793728</v>
       </c>
       <c r="H10">
-        <v>38.97540017242756</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>38.60721918033248</v>
       </c>
       <c r="J10">
-        <v>78.84134453021015</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>5.904082607283103</v>
+        <v>78.56837018028678</v>
       </c>
       <c r="L10">
-        <v>49.79344602471824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>5.929248198305624</v>
+      </c>
+      <c r="M10">
+        <v>49.61208422488646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.571475099573849</v>
+        <v>3.414225851373758</v>
       </c>
       <c r="D11">
-        <v>5.777514024673991</v>
+        <v>5.596537330500953</v>
       </c>
       <c r="E11">
-        <v>7.217820009794439</v>
+        <v>7.218795563512378</v>
       </c>
       <c r="F11">
-        <v>56.08659360473188</v>
+        <v>55.57241477306333</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.838462350598537</v>
       </c>
       <c r="H11">
-        <v>41.47670999150905</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>41.07172468295561</v>
       </c>
       <c r="J11">
-        <v>82.34387605095395</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>6.160748317459529</v>
+        <v>82.05045219288563</v>
       </c>
       <c r="L11">
-        <v>52.0373053739265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>6.185322346088637</v>
+      </c>
+      <c r="M11">
+        <v>51.84267217507881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.668048569523823</v>
+        <v>3.510236964743922</v>
       </c>
       <c r="D12">
-        <v>5.978523627250854</v>
+        <v>5.795102866454249</v>
       </c>
       <c r="E12">
-        <v>7.2986356059907</v>
+        <v>7.322841490386608</v>
       </c>
       <c r="F12">
-        <v>57.38937280022567</v>
+        <v>56.85500149196073</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.829051823333706</v>
       </c>
       <c r="H12">
-        <v>42.45776507146429</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>42.03808744028839</v>
       </c>
       <c r="J12">
-        <v>83.67961946574441</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>6.258461752440262</v>
+        <v>83.37764938090565</v>
       </c>
       <c r="L12">
-        <v>52.89438988734969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>6.282769197681641</v>
+      </c>
+      <c r="M12">
+        <v>52.69418624368253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.647022359373274</v>
+        <v>3.489338272834636</v>
       </c>
       <c r="D13">
-        <v>5.934782313645913</v>
+        <v>5.751897801455587</v>
       </c>
       <c r="E13">
-        <v>7.2763187754506</v>
+        <v>7.300455293221915</v>
       </c>
       <c r="F13">
-        <v>57.10647694257575</v>
+        <v>56.57651103811284</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.831096785215097</v>
       </c>
       <c r="H13">
-        <v>42.24473541626401</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>41.82826581782314</v>
       </c>
       <c r="J13">
-        <v>83.39134060610174</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>6.237382609573207</v>
+        <v>83.09125410845166</v>
       </c>
       <c r="L13">
-        <v>52.70934879675039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>6.261749723721917</v>
+      </c>
+      <c r="M13">
+        <v>52.51037398838512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.579320747242645</v>
+        <v>3.422028007161205</v>
       </c>
       <c r="D14">
-        <v>5.793854027130593</v>
+        <v>5.612680457836232</v>
       </c>
       <c r="E14">
-        <v>7.222425455414713</v>
+        <v>7.227366026715012</v>
       </c>
       <c r="F14">
-        <v>56.19276005070362</v>
+        <v>55.67694408883705</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.83769611643359</v>
       </c>
       <c r="H14">
-        <v>41.55666058468819</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>41.150485214379</v>
       </c>
       <c r="J14">
-        <v>82.45351521128845</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>6.168772730135916</v>
+        <v>82.1594068755131</v>
       </c>
       <c r="L14">
-        <v>52.10762662972203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>6.193325805984727</v>
+      </c>
+      <c r="M14">
+        <v>51.91254777275465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.538483226326312</v>
+        <v>3.381412736725125</v>
       </c>
       <c r="D15">
-        <v>5.708783643292171</v>
+        <v>5.528632042700451</v>
       </c>
       <c r="E15">
-        <v>7.198389776363237</v>
+        <v>7.182524934364041</v>
       </c>
       <c r="F15">
-        <v>55.6395140260116</v>
+        <v>55.13221554224215</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.841687797958262</v>
       </c>
       <c r="H15">
-        <v>41.1400234384828</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>40.74003739601155</v>
       </c>
       <c r="J15">
-        <v>81.880623083797</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>6.126835760039034</v>
+        <v>81.59005928524647</v>
       </c>
       <c r="L15">
-        <v>51.7402369364813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>6.151496566051962</v>
+      </c>
+      <c r="M15">
+        <v>51.54746494969579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.31282347163835</v>
+        <v>3.156806208680613</v>
       </c>
       <c r="D16">
-        <v>5.237916085096721</v>
+        <v>5.063330259585284</v>
       </c>
       <c r="E16">
-        <v>7.062827611167435</v>
+        <v>6.999299664908968</v>
       </c>
       <c r="F16">
-        <v>52.55384035900189</v>
+        <v>52.09364975585387</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.863895515642179</v>
       </c>
       <c r="H16">
-        <v>38.81595933476106</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>38.45010767558648</v>
       </c>
       <c r="J16">
-        <v>78.61320286022988</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5.887345714607271</v>
+        <v>78.34147385198716</v>
       </c>
       <c r="L16">
-        <v>49.64746009664102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>5.912545063398489</v>
+      </c>
+      <c r="M16">
+        <v>49.46690358688375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.180641289928182</v>
+        <v>3.025113728555512</v>
       </c>
       <c r="D17">
-        <v>4.961554749578772</v>
+        <v>4.790220825425325</v>
       </c>
       <c r="E17">
-        <v>6.981398811623234</v>
+        <v>6.91462181602495</v>
       </c>
       <c r="F17">
-        <v>50.72384215402857</v>
+        <v>50.29155230041658</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.877024286114318</v>
       </c>
       <c r="H17">
-        <v>37.43727769743271</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>37.09156777387108</v>
       </c>
       <c r="J17">
-        <v>76.61506666957251</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>5.740679520044911</v>
+        <v>76.35385054068148</v>
       </c>
       <c r="L17">
-        <v>48.36971849265389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>5.766152749837769</v>
+      </c>
+      <c r="M17">
+        <v>48.19594506472698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.106505877220333</v>
+        <v>2.951214992050895</v>
       </c>
       <c r="D18">
-        <v>4.806409274411586</v>
+        <v>4.636918126428756</v>
       </c>
       <c r="E18">
-        <v>6.935130323542685</v>
+        <v>6.866452625614194</v>
       </c>
       <c r="F18">
-        <v>49.69018500170456</v>
+        <v>49.27374347182253</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.884427498657167</v>
       </c>
       <c r="H18">
-        <v>36.65837464792492</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>36.32408228164128</v>
       </c>
       <c r="J18">
-        <v>75.46554874003934</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>5.656245972690069</v>
+        <v>75.21008394972036</v>
       </c>
       <c r="L18">
-        <v>47.63531151547101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>5.681860375977295</v>
+      </c>
+      <c r="M18">
+        <v>47.46523682585654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.081697089425647</v>
+        <v>2.926479548893662</v>
       </c>
       <c r="D19">
-        <v>4.754470932446602</v>
+        <v>4.585601581225433</v>
       </c>
       <c r="E19">
-        <v>6.919556347524863</v>
+        <v>6.850229688230436</v>
       </c>
       <c r="F19">
-        <v>49.34311382918955</v>
+        <v>48.93201709431646</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.886911409262579</v>
       </c>
       <c r="H19">
-        <v>36.39681037383644</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>36.06636488658877</v>
       </c>
       <c r="J19">
-        <v>75.0760907155733</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>5.627631443981375</v>
+        <v>74.82252917093936</v>
       </c>
       <c r="L19">
-        <v>47.38660163934003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>5.653291176997191</v>
+      </c>
+      <c r="M19">
+        <v>47.21774892093779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.194508354038587</v>
+        <v>3.038933554846711</v>
       </c>
       <c r="D20">
-        <v>4.99056390717454</v>
+        <v>4.818887314641332</v>
       </c>
       <c r="E20">
-        <v>6.990006938505687</v>
+        <v>6.923579131251105</v>
       </c>
       <c r="F20">
-        <v>50.91660727604208</v>
+        <v>50.48137123934768</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.875642713176883</v>
       </c>
       <c r="H20">
-        <v>37.5825195675222</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>37.23468530266884</v>
       </c>
       <c r="J20">
-        <v>76.82774518326744</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>5.756296735894997</v>
+        <v>76.56544218463064</v>
       </c>
       <c r="L20">
-        <v>48.50564806843224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>5.781742588270372</v>
+      </c>
+      <c r="M20">
+        <v>48.33117466698366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.59907120498284</v>
+        <v>3.441667287097252</v>
       </c>
       <c r="D21">
-        <v>5.834980303862096</v>
+        <v>5.65330990874517</v>
       </c>
       <c r="E21">
-        <v>7.233993096513093</v>
+        <v>7.24884830359815</v>
       </c>
       <c r="F21">
-        <v>56.45976361476581</v>
+        <v>55.93982430881418</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.835768565546645</v>
       </c>
       <c r="H21">
-        <v>41.75773064433066</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>41.34855704605479</v>
       </c>
       <c r="J21">
-        <v>82.72863186816292</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>6.188905282682492</v>
+        <v>82.43279291999617</v>
       </c>
       <c r="L21">
-        <v>52.28410590288086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>6.213405067851217</v>
+      </c>
+      <c r="M21">
+        <v>52.08789987270114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.890631591060688</v>
+        <v>3.731283689459919</v>
       </c>
       <c r="D22">
-        <v>6.440740293136477</v>
+        <v>6.251457074801314</v>
       </c>
       <c r="E22">
-        <v>7.52613623008133</v>
+        <v>7.550975547136102</v>
       </c>
       <c r="F22">
-        <v>60.35873245869302</v>
+        <v>59.77717576076142</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.807537007693785</v>
       </c>
       <c r="H22">
-        <v>44.69370860478956</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>44.23958043092762</v>
       </c>
       <c r="J22">
-        <v>86.64764305844224</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>6.475139511683469</v>
+        <v>86.32487070944306</v>
       </c>
       <c r="L22">
-        <v>54.80170931088474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>6.49875628872037</v>
+      </c>
+      <c r="M22">
+        <v>54.5878964879219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.731873223507612</v>
+        <v>3.573656595583856</v>
       </c>
       <c r="D23">
-        <v>6.111218896953763</v>
+        <v>5.926154042946993</v>
       </c>
       <c r="E23">
-        <v>7.365491896494923</v>
+        <v>7.389898083063186</v>
       </c>
       <c r="F23">
-        <v>58.24555472141631</v>
+        <v>57.69776798089563</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.822857704618637</v>
       </c>
       <c r="H23">
-        <v>43.10248614524606</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>42.67303043624174</v>
       </c>
       <c r="J23">
-        <v>84.5461762636057</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>6.321791751377972</v>
+        <v>84.23840661680757</v>
       </c>
       <c r="L23">
-        <v>53.45084036331087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>6.345912355873404</v>
+      </c>
+      <c r="M23">
+        <v>53.24684937892186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.188233361729816</v>
+        <v>3.032680055615822</v>
       </c>
       <c r="D24">
-        <v>4.977437405113292</v>
+        <v>4.805915808984226</v>
       </c>
       <c r="E24">
-        <v>6.986113519964713</v>
+        <v>6.919527946591815</v>
       </c>
       <c r="F24">
-        <v>50.82940173214759</v>
+        <v>50.3954982248416</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.87626776512844</v>
       </c>
       <c r="H24">
-        <v>37.51681373255921</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>37.16994035854746</v>
       </c>
       <c r="J24">
-        <v>76.73159620008128</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>5.749236584368076</v>
+        <v>76.46978546669459</v>
       </c>
       <c r="L24">
-        <v>48.44419413725812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>5.774694863780574</v>
+      </c>
+      <c r="M24">
+        <v>48.27003780628313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.672742771575864</v>
+        <v>2.518341885163786</v>
       </c>
       <c r="D25">
-        <v>3.897557427762725</v>
+        <v>3.739728462658429</v>
       </c>
       <c r="E25">
-        <v>6.657339741312551</v>
+        <v>6.576329871200365</v>
       </c>
       <c r="F25">
-        <v>43.53921608612459</v>
+        <v>43.22085919017322</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.928345164438706</v>
       </c>
       <c r="H25">
-        <v>32.01944199644185</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>31.75549708324637</v>
       </c>
       <c r="J25">
-        <v>68.28284340126409</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>5.29202509695441</v>
+        <v>68.05938476469552</v>
       </c>
       <c r="L25">
-        <v>43.05665335963222</v>
+        <v>5.250116568975976</v>
+      </c>
+      <c r="M25">
+        <v>42.90697132749644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.169296242869119</v>
+        <v>7.625059278128443</v>
       </c>
       <c r="D2">
-        <v>3.021690995941855</v>
+        <v>5.216965850508734</v>
       </c>
       <c r="E2">
-        <v>6.335903045041509</v>
+        <v>4.592044107864559</v>
       </c>
       <c r="F2">
-        <v>38.24198135141242</v>
+        <v>49.30596404621393</v>
       </c>
       <c r="G2">
-        <v>1.96451621461353</v>
+        <v>1.953881237984194</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.98826956960158</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>61.64735938471141</v>
+        <v>48.41196848787546</v>
       </c>
       <c r="L2">
-        <v>5.225259071470608</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>38.83278585995855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>31.89423460902225</v>
+      </c>
+      <c r="N2">
+        <v>11.17202337703387</v>
+      </c>
+      <c r="O2">
+        <v>39.06796763632619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.942289033349</v>
+        <v>7.036807646958423</v>
       </c>
       <c r="D3">
-        <v>2.562185718868538</v>
+        <v>4.833785973654704</v>
       </c>
       <c r="E3">
-        <v>6.179269944400229</v>
+        <v>4.684194718978025</v>
       </c>
       <c r="F3">
-        <v>34.97490677412946</v>
+        <v>45.45427639659577</v>
       </c>
       <c r="G3">
-        <v>1.98845977538014</v>
+        <v>1.975171314598263</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.50844136300464</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>57.10453690543452</v>
+        <v>44.82131158293988</v>
       </c>
       <c r="L3">
-        <v>5.22331449249241</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>35.95295766312366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>29.5142772757521</v>
+      </c>
+      <c r="N3">
+        <v>11.34001405519397</v>
+      </c>
+      <c r="O3">
+        <v>35.96670708907538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.805554463130536</v>
+        <v>6.663381291812705</v>
       </c>
       <c r="D4">
-        <v>2.45347020438223</v>
+        <v>4.668705186479769</v>
       </c>
       <c r="E4">
-        <v>6.085970590977763</v>
+        <v>4.741861848729073</v>
       </c>
       <c r="F4">
-        <v>33.07276718879469</v>
+        <v>43.04868604814349</v>
       </c>
       <c r="G4">
-        <v>2.003062625686854</v>
+        <v>1.988239204935393</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.17347469918689</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>54.20342829438383</v>
+        <v>42.52699129891925</v>
       </c>
       <c r="L4">
-        <v>5.228439287969868</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>34.11651218394862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>27.99660244864726</v>
+      </c>
+      <c r="N4">
+        <v>11.44690370088825</v>
+      </c>
+      <c r="O4">
+        <v>34.0335408278461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.750255663135956</v>
+        <v>6.507883237090168</v>
       </c>
       <c r="D5">
-        <v>2.494690961356917</v>
+        <v>4.604182138710324</v>
       </c>
       <c r="E5">
-        <v>6.04865365218222</v>
+        <v>4.765684816465507</v>
       </c>
       <c r="F5">
-        <v>32.38352310835193</v>
+        <v>42.10797650552043</v>
       </c>
       <c r="G5">
-        <v>2.009010429784812</v>
+        <v>1.993579330133979</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.72183164919929</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>52.99132256246079</v>
+        <v>41.56826296613625</v>
       </c>
       <c r="L5">
-        <v>5.231987142841611</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>33.34981275032109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27.36309549758979</v>
+      </c>
+      <c r="N5">
+        <v>11.49142542165932</v>
+      </c>
+      <c r="O5">
+        <v>33.32572417920191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.741092500815345</v>
+        <v>6.481855626426613</v>
       </c>
       <c r="D6">
-        <v>2.502106452687757</v>
+        <v>4.593628646932898</v>
       </c>
       <c r="E6">
-        <v>6.042499320123126</v>
+        <v>4.76966147619985</v>
       </c>
       <c r="F6">
-        <v>32.26999556863141</v>
+        <v>41.95406719976549</v>
       </c>
       <c r="G6">
-        <v>2.009998443668776</v>
+        <v>1.994467369377914</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.64778473670154</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>52.78820209928864</v>
+        <v>41.40759829427728</v>
       </c>
       <c r="L6">
-        <v>5.232660971247763</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>33.22136465589518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27.25697067579155</v>
+      </c>
+      <c r="N6">
+        <v>11.49887699502426</v>
+      </c>
+      <c r="O6">
+        <v>33.20799360635245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.804807267365121</v>
+        <v>6.661297948227383</v>
       </c>
       <c r="D7">
-        <v>2.453986134414009</v>
+        <v>4.667824129289723</v>
       </c>
       <c r="E7">
-        <v>6.085464491652056</v>
+        <v>4.742181763135247</v>
       </c>
       <c r="F7">
-        <v>33.063409563581</v>
+        <v>43.03535750271643</v>
       </c>
       <c r="G7">
-        <v>2.003142825880854</v>
+        <v>1.988311144364494</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.16731966403071</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>54.18720453483965</v>
+        <v>42.51415931343256</v>
       </c>
       <c r="L7">
-        <v>5.228481383943603</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>34.10624785998682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>27.98812071172487</v>
+      </c>
+      <c r="N7">
+        <v>11.4475002087429</v>
+      </c>
+      <c r="O7">
+        <v>34.02400795745334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.090311779871055</v>
+        <v>7.424609166804292</v>
       </c>
       <c r="D8">
-        <v>2.860835177408994</v>
+        <v>5.057205837077747</v>
       </c>
       <c r="E8">
-        <v>6.281283924152363</v>
+        <v>4.623624088203772</v>
       </c>
       <c r="F8">
-        <v>37.10670101776079</v>
+        <v>47.98536716984757</v>
       </c>
       <c r="G8">
-        <v>1.972806886194698</v>
+        <v>1.961233407800209</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.12742846663417</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>60.103038017497</v>
+        <v>47.19171124256339</v>
       </c>
       <c r="L8">
-        <v>5.223192985680098</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>37.85320606557636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31.08475974784725</v>
+      </c>
+      <c r="N8">
+        <v>11.22918424168738</v>
+      </c>
+      <c r="O8">
+        <v>38.00494253400876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.685485819774856</v>
+        <v>8.838015418996738</v>
       </c>
       <c r="D9">
-        <v>4.085790442739894</v>
+        <v>6.21502638856472</v>
       </c>
       <c r="E9">
-        <v>6.689783987624735</v>
+        <v>4.397163801754628</v>
       </c>
       <c r="F9">
-        <v>45.57583074877348</v>
+        <v>57.45926910456883</v>
       </c>
       <c r="G9">
-        <v>1.911271662609507</v>
+        <v>1.907204197482121</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.53405272216393</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>70.91659276879825</v>
+        <v>55.72136612816882</v>
       </c>
       <c r="L9">
-        <v>5.365184648314095</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>44.7263291573981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>36.75796179587418</v>
+      </c>
+      <c r="N9">
+        <v>10.82950430815859</v>
+      </c>
+      <c r="O9">
+        <v>45.62766657273217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.172110038001434</v>
+        <v>9.850364607966501</v>
       </c>
       <c r="D10">
-        <v>5.095057017310559</v>
+        <v>7.090724781808667</v>
       </c>
       <c r="E10">
-        <v>7.009039200678632</v>
+        <v>4.230273404523476</v>
       </c>
       <c r="F10">
-        <v>52.30208984722856</v>
+        <v>64.45724616723912</v>
       </c>
       <c r="G10">
-        <v>1.862375082793728</v>
+        <v>1.865291771174516</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>38.60721918033248</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>78.56837018028678</v>
+        <v>61.72014359936869</v>
       </c>
       <c r="L10">
-        <v>5.929248198305624</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>49.61208422488646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>40.76969122666939</v>
+      </c>
+      <c r="N10">
+        <v>10.55072412741144</v>
+      </c>
+      <c r="O10">
+        <v>51.2573929081093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.414225851373758</v>
+        <v>10.3133344577118</v>
       </c>
       <c r="D11">
-        <v>5.596537330500953</v>
+        <v>7.504866032162664</v>
       </c>
       <c r="E11">
-        <v>7.218795563512378</v>
+        <v>4.153130395411829</v>
       </c>
       <c r="F11">
-        <v>55.57241477306333</v>
+        <v>67.71181840696326</v>
       </c>
       <c r="G11">
-        <v>1.838462350598537</v>
+        <v>1.84519652135977</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>41.07172468295561</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>82.05045219288563</v>
+        <v>64.43151642861069</v>
       </c>
       <c r="L11">
-        <v>6.185322346088637</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>51.84267217507881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>42.58915863271844</v>
+      </c>
+      <c r="N11">
+        <v>10.42621041456878</v>
+      </c>
+      <c r="O11">
+        <v>53.8765700900979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.510236964743922</v>
+        <v>10.48998968367971</v>
       </c>
       <c r="D12">
-        <v>5.795102866454249</v>
+        <v>7.665243555340045</v>
       </c>
       <c r="E12">
-        <v>7.322841490386608</v>
+        <v>4.123637257818787</v>
       </c>
       <c r="F12">
-        <v>56.85500149196073</v>
+        <v>68.96238051139954</v>
       </c>
       <c r="G12">
-        <v>1.829051823333706</v>
+        <v>1.837371503080008</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>42.03808744028839</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>83.37764938090565</v>
+        <v>65.46069608066929</v>
       </c>
       <c r="L12">
-        <v>6.282769197681641</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>52.69418624368253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>43.28082194983958</v>
+      </c>
+      <c r="N12">
+        <v>10.37926558342037</v>
+      </c>
+      <c r="O12">
+        <v>54.88323084425285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.489338272834636</v>
+        <v>10.4518644982484</v>
       </c>
       <c r="D13">
-        <v>5.751897801455587</v>
+        <v>7.630519556761723</v>
       </c>
       <c r="E13">
-        <v>7.300455293221915</v>
+        <v>4.130003353739855</v>
       </c>
       <c r="F13">
-        <v>56.57651103811284</v>
+        <v>68.69208364894655</v>
       </c>
       <c r="G13">
-        <v>1.831096785215097</v>
+        <v>1.839067697066861</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>41.82826581782314</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>83.09125410845166</v>
+        <v>65.23883561103501</v>
       </c>
       <c r="L13">
-        <v>6.261749723721917</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>52.51037398838512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>43.13167172169324</v>
+      </c>
+      <c r="N13">
+        <v>10.38936953415391</v>
+      </c>
+      <c r="O13">
+        <v>54.66563786872671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.422028007161205</v>
+        <v>10.3278341790854</v>
       </c>
       <c r="D14">
-        <v>5.612680457836232</v>
+        <v>7.517980084924853</v>
       </c>
       <c r="E14">
-        <v>7.227366026715012</v>
+        <v>4.150710227632883</v>
       </c>
       <c r="F14">
-        <v>55.67694408883705</v>
+        <v>67.81428327919269</v>
       </c>
       <c r="G14">
-        <v>1.83769611643359</v>
+        <v>1.84455754776218</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>41.150485214379</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>82.1594068755131</v>
+        <v>64.51610357270773</v>
       </c>
       <c r="L14">
-        <v>6.193325805984727</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>51.91254777275465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>42.64598418315154</v>
+      </c>
+      <c r="N14">
+        <v>10.42234505589046</v>
+      </c>
+      <c r="O14">
+        <v>53.95904523275035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.381412736725125</v>
+        <v>10.25207188072012</v>
       </c>
       <c r="D15">
-        <v>5.528632042700451</v>
+        <v>7.449555315235984</v>
       </c>
       <c r="E15">
-        <v>7.182524934364041</v>
+        <v>4.163353993966394</v>
       </c>
       <c r="F15">
-        <v>55.13221554224215</v>
+        <v>67.27925230161098</v>
       </c>
       <c r="G15">
-        <v>1.841687797958262</v>
+        <v>1.847889755355292</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>40.74003739601155</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>81.59005928524647</v>
+        <v>64.07390612100225</v>
       </c>
       <c r="L15">
-        <v>6.151496566051962</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>51.54746494969579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>42.34895890297778</v>
+      </c>
+      <c r="N15">
+        <v>10.44256553294757</v>
+      </c>
+      <c r="O15">
+        <v>53.52840337221031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.156806208680613</v>
+        <v>9.820234212109508</v>
       </c>
       <c r="D16">
-        <v>5.063330259585284</v>
+        <v>7.064076324576593</v>
       </c>
       <c r="E16">
-        <v>6.999299664908968</v>
+        <v>4.235281481261739</v>
       </c>
       <c r="F16">
-        <v>52.09364975585387</v>
+        <v>64.24659342055811</v>
       </c>
       <c r="G16">
-        <v>1.863895515642179</v>
+        <v>1.866579117520279</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.45010767558648</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>78.34147385198716</v>
+        <v>61.54298107668011</v>
       </c>
       <c r="L16">
-        <v>5.912545063398489</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>49.46690358688375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>40.65094265083731</v>
+      </c>
+      <c r="N16">
+        <v>10.55889833986602</v>
+      </c>
+      <c r="O16">
+        <v>51.087893943207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.025113728555512</v>
+        <v>9.556541762736922</v>
       </c>
       <c r="D17">
-        <v>4.790220825425325</v>
+        <v>6.832413489178371</v>
       </c>
       <c r="E17">
-        <v>6.91462181602495</v>
+        <v>4.27902140973753</v>
       </c>
       <c r="F17">
-        <v>50.29155230041658</v>
+        <v>62.40913486119246</v>
       </c>
       <c r="G17">
-        <v>1.877024286114318</v>
+        <v>1.877740063771803</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.09156777387108</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>76.35385054068148</v>
+        <v>59.98886492867356</v>
       </c>
       <c r="L17">
-        <v>5.766152749837769</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>48.19594506472698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>39.6099599681255</v>
+      </c>
+      <c r="N17">
+        <v>10.63078274710109</v>
+      </c>
+      <c r="O17">
+        <v>49.60952294365631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.951214992050895</v>
+        <v>9.405028321831361</v>
       </c>
       <c r="D18">
-        <v>4.636918126428756</v>
+        <v>6.700554691754053</v>
       </c>
       <c r="E18">
-        <v>6.866452625614194</v>
+        <v>4.304071233726624</v>
       </c>
       <c r="F18">
-        <v>49.27374347182253</v>
+        <v>61.3583691784048</v>
       </c>
       <c r="G18">
-        <v>1.884427498657167</v>
+        <v>1.884067816391593</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.32408228164128</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>75.21008394972036</v>
+        <v>59.09295450339454</v>
       </c>
       <c r="L18">
-        <v>5.681860375977295</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>47.46523682585654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>39.01043521384235</v>
+      </c>
+      <c r="N18">
+        <v>10.67235571248785</v>
+      </c>
+      <c r="O18">
+        <v>48.7641842090639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.926479548893662</v>
+        <v>9.353730481599428</v>
       </c>
       <c r="D19">
-        <v>4.585601581225433</v>
+        <v>6.656116028040904</v>
       </c>
       <c r="E19">
-        <v>6.850229688230436</v>
+        <v>4.312537137099954</v>
       </c>
       <c r="F19">
-        <v>48.93201709431646</v>
+        <v>61.00344872384535</v>
       </c>
       <c r="G19">
-        <v>1.886911409262579</v>
+        <v>1.886196210437325</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.06636488658877</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>74.82252917093936</v>
+        <v>58.78914313481034</v>
       </c>
       <c r="L19">
-        <v>5.653291176997191</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>47.21774892093779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>38.80722603716515</v>
+      </c>
+      <c r="N19">
+        <v>10.68647352014225</v>
+      </c>
+      <c r="O19">
+        <v>48.47866213602802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.038933554846711</v>
+        <v>9.58459012609295</v>
       </c>
       <c r="D20">
-        <v>4.818887314641332</v>
+        <v>6.856922968213627</v>
       </c>
       <c r="E20">
-        <v>6.923579131251105</v>
+        <v>4.274377153710604</v>
       </c>
       <c r="F20">
-        <v>50.48137123934768</v>
+        <v>62.60405692989938</v>
       </c>
       <c r="G20">
-        <v>1.875642713176883</v>
+        <v>1.876561867845596</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.23468530266884</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>76.56544218463064</v>
+        <v>60.15448232698152</v>
       </c>
       <c r="L20">
-        <v>5.781742588270372</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>48.33117466698366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>39.7208337451959</v>
+      </c>
+      <c r="N20">
+        <v>10.62310776765849</v>
+      </c>
+      <c r="O20">
+        <v>49.76634312166047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.441667287097252</v>
+        <v>10.36421884160791</v>
       </c>
       <c r="D21">
-        <v>5.65330990874517</v>
+        <v>7.550926567235672</v>
       </c>
       <c r="E21">
-        <v>7.24884830359815</v>
+        <v>4.144636604274633</v>
       </c>
       <c r="F21">
-        <v>55.93982430881418</v>
+        <v>68.071544152589</v>
       </c>
       <c r="G21">
-        <v>1.835768565546645</v>
+        <v>1.842951557378191</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>41.34855704605479</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>82.43279291999617</v>
+        <v>64.72827229868</v>
       </c>
       <c r="L21">
-        <v>6.213405067851217</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>52.08789987270114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>42.78853582726179</v>
+      </c>
+      <c r="N21">
+        <v>10.41265507647986</v>
+      </c>
+      <c r="O21">
+        <v>54.16612179365156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.731283689459919</v>
+        <v>10.8823221276699</v>
       </c>
       <c r="D22">
-        <v>6.251457074801314</v>
+        <v>8.02620986859567</v>
       </c>
       <c r="E22">
-        <v>7.550975547136102</v>
+        <v>4.058156208199897</v>
       </c>
       <c r="F22">
-        <v>59.77717576076142</v>
+        <v>71.75677139282966</v>
       </c>
       <c r="G22">
-        <v>1.807537007693785</v>
+        <v>1.819676945109556</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>44.23958043092762</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>86.32487070944306</v>
+        <v>67.7356180115615</v>
       </c>
       <c r="L22">
-        <v>6.49875628872037</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>54.5878964879219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>44.81171733389525</v>
+      </c>
+      <c r="N22">
+        <v>10.27619936822078</v>
+      </c>
+      <c r="O22">
+        <v>57.13321766608488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.573656595583856</v>
+        <v>10.6045825287969</v>
       </c>
       <c r="D23">
-        <v>5.926154042946993</v>
+        <v>7.769987014976232</v>
       </c>
       <c r="E23">
-        <v>7.389898083063186</v>
+        <v>4.104502558513453</v>
       </c>
       <c r="F23">
-        <v>57.69776798089563</v>
+        <v>69.77614774197205</v>
       </c>
       <c r="G23">
-        <v>1.822857704618637</v>
+        <v>1.832248539111318</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>42.67303043624174</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>84.23840661680757</v>
+        <v>66.1266981987655</v>
       </c>
       <c r="L23">
-        <v>6.345912355873404</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>53.24684937892186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>43.72871489715449</v>
+      </c>
+      <c r="N23">
+        <v>10.34898900411486</v>
+      </c>
+      <c r="O23">
+        <v>55.53837099691361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.032680055615822</v>
+        <v>9.571909259394923</v>
       </c>
       <c r="D24">
-        <v>4.805915808984226</v>
+        <v>6.845838187930281</v>
       </c>
       <c r="E24">
-        <v>6.919527946591815</v>
+        <v>4.276477115622121</v>
       </c>
       <c r="F24">
-        <v>50.3954982248416</v>
+        <v>62.51591572668932</v>
       </c>
       <c r="G24">
-        <v>1.87626776512844</v>
+        <v>1.87709480219004</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.16994035854746</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>76.46978546669459</v>
+        <v>60.07961461103982</v>
       </c>
       <c r="L24">
-        <v>5.774694863780574</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>48.27003780628313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>39.6707112225971</v>
+      </c>
+      <c r="N24">
+        <v>10.62657685217801</v>
+      </c>
+      <c r="O24">
+        <v>49.69543085272867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.518341885163786</v>
+        <v>8.462399223460547</v>
       </c>
       <c r="D25">
-        <v>3.739728462658429</v>
+        <v>5.900135437960176</v>
       </c>
       <c r="E25">
-        <v>6.576329871200365</v>
+        <v>4.458178048882779</v>
       </c>
       <c r="F25">
-        <v>43.22085919017322</v>
+        <v>54.90612067779121</v>
       </c>
       <c r="G25">
-        <v>1.928345164438706</v>
+        <v>1.922064474274264</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.75549708324637</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>68.05938476469552</v>
+        <v>53.47177745916824</v>
       </c>
       <c r="L25">
-        <v>5.250116568975976</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>42.90697132749644</v>
+        <v>35.25827925398033</v>
+      </c>
+      <c r="N25">
+        <v>10.93479144105887</v>
+      </c>
+      <c r="O25">
+        <v>43.57389460066725</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.625059278128443</v>
+        <v>2.155959489174622</v>
       </c>
       <c r="D2">
-        <v>5.216965850508734</v>
+        <v>5.402963555601072</v>
       </c>
       <c r="E2">
-        <v>4.592044107864559</v>
+        <v>9.95207524857722</v>
       </c>
       <c r="F2">
-        <v>49.30596404621393</v>
+        <v>36.00356621932114</v>
       </c>
       <c r="G2">
-        <v>1.953881237984194</v>
+        <v>2.018535125273863</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>24.29292107263905</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.529779954628882</v>
       </c>
       <c r="K2">
-        <v>48.41196848787546</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>31.89423460902225</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.17202337703387</v>
+        <v>25.60720851682374</v>
       </c>
       <c r="O2">
-        <v>39.06796763632619</v>
+        <v>26.27397540079815</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.036807646958423</v>
+        <v>2.116451258533526</v>
       </c>
       <c r="D3">
-        <v>4.833785973654704</v>
+        <v>5.336285722063059</v>
       </c>
       <c r="E3">
-        <v>4.684194718978025</v>
+        <v>9.589450536726609</v>
       </c>
       <c r="F3">
-        <v>45.45427639659577</v>
+        <v>33.90173506910757</v>
       </c>
       <c r="G3">
-        <v>1.975171314598263</v>
+        <v>2.028202426421648</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>22.90247652066671</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.369653233748574</v>
       </c>
       <c r="K3">
-        <v>44.82131158293988</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>29.5142772757521</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.34001405519397</v>
+        <v>24.22561817997339</v>
       </c>
       <c r="O3">
-        <v>35.96670708907538</v>
+        <v>24.7748402321336</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.663381291812705</v>
+        <v>2.091570318393179</v>
       </c>
       <c r="D4">
-        <v>4.668705186479769</v>
+        <v>5.298019875621841</v>
       </c>
       <c r="E4">
-        <v>4.741861848729073</v>
+        <v>9.368405775878564</v>
       </c>
       <c r="F4">
-        <v>43.04868604814349</v>
+        <v>32.57748785114467</v>
       </c>
       <c r="G4">
-        <v>1.988239204935393</v>
+        <v>2.034287233897837</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>22.02776924949269</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.274419361052626</v>
       </c>
       <c r="K4">
-        <v>42.52699129891925</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>27.99660244864726</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.44690370088825</v>
+        <v>23.33595077662917</v>
       </c>
       <c r="O4">
-        <v>34.0335408278461</v>
+        <v>23.83214078322881</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.507883237090168</v>
+        <v>2.081278867888728</v>
       </c>
       <c r="D5">
-        <v>4.604182138710324</v>
+        <v>5.283089423360369</v>
       </c>
       <c r="E5">
-        <v>4.765684816465507</v>
+        <v>9.278822448659966</v>
       </c>
       <c r="F5">
-        <v>42.10797650552043</v>
+        <v>32.02980803108483</v>
       </c>
       <c r="G5">
-        <v>1.993579330133979</v>
+        <v>2.036806473709053</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.66635477851563</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.236399954408515</v>
       </c>
       <c r="K5">
-        <v>41.56826296613625</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.36309549758979</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.49142542165932</v>
+        <v>22.96331756195408</v>
       </c>
       <c r="O5">
-        <v>33.32572417920191</v>
+        <v>23.44272618089942</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.481855626426613</v>
+        <v>2.079560916210264</v>
       </c>
       <c r="D6">
-        <v>4.593628646932898</v>
+        <v>5.280650005987953</v>
       </c>
       <c r="E6">
-        <v>4.76966147619985</v>
+        <v>9.263979876372133</v>
       </c>
       <c r="F6">
-        <v>41.95406719976549</v>
+        <v>31.93839618640249</v>
       </c>
       <c r="G6">
-        <v>1.994467369377914</v>
+        <v>2.037227245184823</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.60605311497893</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.230134930782792</v>
       </c>
       <c r="K6">
-        <v>41.40759829427728</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.25697067579155</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.49887699502426</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>33.20799360635245</v>
+        <v>23.37775823946037</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.661297948227383</v>
+        <v>2.091432134878183</v>
       </c>
       <c r="D7">
-        <v>4.667824129289723</v>
+        <v>5.297815845749485</v>
       </c>
       <c r="E7">
-        <v>4.742181763135247</v>
+        <v>9.367195496510911</v>
       </c>
       <c r="F7">
-        <v>43.03535750271643</v>
+        <v>32.57013351761964</v>
       </c>
       <c r="G7">
-        <v>1.988311144364494</v>
+        <v>2.034321046047151</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>22.02291471438996</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.273903404360197</v>
       </c>
       <c r="K7">
-        <v>42.51415931343256</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>27.98812071172487</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.4475002087429</v>
+        <v>23.33096569062624</v>
       </c>
       <c r="O7">
-        <v>34.02400795745334</v>
+        <v>23.82690977858513</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.424609166804292</v>
+        <v>2.142468791238381</v>
       </c>
       <c r="D8">
-        <v>5.057205837077747</v>
+        <v>5.379412361242676</v>
       </c>
       <c r="E8">
-        <v>4.623624088203772</v>
+        <v>9.82675880514925</v>
       </c>
       <c r="F8">
-        <v>47.98536716984757</v>
+        <v>35.28607489226079</v>
       </c>
       <c r="G8">
-        <v>1.961233407800209</v>
+        <v>2.02183882380099</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>23.81800573924176</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.473935797302523</v>
       </c>
       <c r="K8">
-        <v>47.19171124256339</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>31.08475974784725</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.22918424168738</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>38.00494253400876</v>
+        <v>25.76185583155383</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.838015418996738</v>
+        <v>2.237439102650953</v>
       </c>
       <c r="D9">
-        <v>6.21502638856472</v>
+        <v>5.561070325863103</v>
       </c>
       <c r="E9">
-        <v>4.397163801754628</v>
+        <v>10.73745082650514</v>
       </c>
       <c r="F9">
-        <v>57.45926910456883</v>
+        <v>40.3319656602667</v>
       </c>
       <c r="G9">
-        <v>1.907204197482121</v>
+        <v>1.99843733246812</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>27.1627404348819</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.890195351691903</v>
       </c>
       <c r="K9">
-        <v>55.72136612816882</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>36.75796179587418</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>10.82950430815859</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>45.62766657273217</v>
+        <v>29.37023142728282</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.850364607966501</v>
+        <v>2.303896406707307</v>
       </c>
       <c r="D10">
-        <v>7.090724781808667</v>
+        <v>5.708370241366687</v>
       </c>
       <c r="E10">
-        <v>4.230273404523476</v>
+        <v>11.40912359277109</v>
       </c>
       <c r="F10">
-        <v>64.45724616723912</v>
+        <v>43.87946306212478</v>
       </c>
       <c r="G10">
-        <v>1.865291771174516</v>
+        <v>1.981735712766508</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>29.8071980616448</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.210319079726009</v>
       </c>
       <c r="K10">
-        <v>61.72014359936869</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>40.76969122666939</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.55072412741144</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>51.2573929081093</v>
+        <v>32.11559203288166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.3133344577118</v>
+        <v>2.333374874743881</v>
       </c>
       <c r="D11">
-        <v>7.504866032162664</v>
+        <v>5.778548584464271</v>
       </c>
       <c r="E11">
-        <v>4.153130395411829</v>
+        <v>11.71494952443817</v>
       </c>
       <c r="F11">
-        <v>67.71181840696326</v>
+        <v>45.54356214998471</v>
       </c>
       <c r="G11">
-        <v>1.84519652135977</v>
+        <v>1.974202651561461</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>30.97576360411279</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.359105706623714</v>
       </c>
       <c r="K11">
-        <v>64.43151642861069</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>42.58915863271844</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.42621041456878</v>
+        <v>31.41016321374476</v>
       </c>
       <c r="O11">
-        <v>53.8765700900979</v>
+        <v>33.37061936570766</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.48998968367971</v>
+        <v>2.344426911674267</v>
       </c>
       <c r="D12">
-        <v>7.665243555340045</v>
+        <v>5.805595332009655</v>
       </c>
       <c r="E12">
-        <v>4.123637257818787</v>
+        <v>11.83080051964578</v>
       </c>
       <c r="F12">
-        <v>68.96238051139954</v>
+        <v>46.16667275704878</v>
       </c>
       <c r="G12">
-        <v>1.837371503080008</v>
+        <v>1.97135539802404</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>31.41262291420814</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.41591603719412</v>
       </c>
       <c r="K12">
-        <v>65.46069608066929</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>43.28082194983958</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.37926558342037</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>54.88323084425285</v>
+        <v>33.83998916685378</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.4518644982484</v>
+        <v>2.342051621278474</v>
       </c>
       <c r="D13">
-        <v>7.630519556761723</v>
+        <v>5.799749065628351</v>
       </c>
       <c r="E13">
-        <v>4.130003353739855</v>
+        <v>11.8058478256866</v>
       </c>
       <c r="F13">
-        <v>68.69208364894655</v>
+        <v>46.03278213195729</v>
       </c>
       <c r="G13">
-        <v>1.839067697066861</v>
+        <v>1.971968434887293</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.31878364633932</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.403659774662248</v>
       </c>
       <c r="K13">
-        <v>65.23883561103501</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>43.13167172169324</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.38936953415391</v>
+        <v>31.67947945617568</v>
       </c>
       <c r="O13">
-        <v>54.66563786872671</v>
+        <v>33.73915815177811</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.3278341790854</v>
+        <v>2.334286366102793</v>
       </c>
       <c r="D14">
-        <v>7.517980084924853</v>
+        <v>5.780764180956856</v>
       </c>
       <c r="E14">
-        <v>4.150710227632883</v>
+        <v>11.72447973636904</v>
       </c>
       <c r="F14">
-        <v>67.81428327919269</v>
+        <v>45.59496492938491</v>
       </c>
       <c r="G14">
-        <v>1.84455754776218</v>
+        <v>1.973968323306364</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>31.0118157079873</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.36377003250582</v>
       </c>
       <c r="K14">
-        <v>64.51610357270773</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>42.64598418315154</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.42234505589046</v>
+        <v>31.43851144188476</v>
       </c>
       <c r="O14">
-        <v>53.95904523275035</v>
+        <v>33.40935064804826</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.25207188072012</v>
+        <v>2.329515424978464</v>
       </c>
       <c r="D15">
-        <v>7.449555315235984</v>
+        <v>5.769197345268497</v>
       </c>
       <c r="E15">
-        <v>4.163353993966394</v>
+        <v>11.67464525258343</v>
       </c>
       <c r="F15">
-        <v>67.27925230161098</v>
+        <v>45.32588245127356</v>
       </c>
       <c r="G15">
-        <v>1.847889755355292</v>
+        <v>1.97519388472319</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>30.82306245286812</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.339397942368145</v>
       </c>
       <c r="K15">
-        <v>64.07390612100225</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>42.34895890297778</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.44256553294757</v>
+        <v>31.28998244549471</v>
       </c>
       <c r="O15">
-        <v>53.52840337221031</v>
+        <v>33.20657797743505</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.820234212109508</v>
+        <v>2.301954537432882</v>
       </c>
       <c r="D16">
-        <v>7.064076324576593</v>
+        <v>5.703849007145687</v>
       </c>
       <c r="E16">
-        <v>4.235281481261739</v>
+        <v>11.38914234169621</v>
       </c>
       <c r="F16">
-        <v>64.24659342055811</v>
+        <v>43.76970468899921</v>
       </c>
       <c r="G16">
-        <v>1.866579117520279</v>
+        <v>1.982228990291213</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>29.73002196617417</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.200660062232324</v>
       </c>
       <c r="K16">
-        <v>61.54298107668011</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>40.65094265083731</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.55889833986602</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>51.087893943207</v>
+        <v>32.03273227595002</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.556541762736922</v>
+        <v>2.284851968645842</v>
       </c>
       <c r="D17">
-        <v>6.832413489178371</v>
+        <v>5.664582357471044</v>
       </c>
       <c r="E17">
-        <v>4.27902140973753</v>
+        <v>11.21406063245647</v>
       </c>
       <c r="F17">
-        <v>62.40913486119246</v>
+        <v>42.84902544042065</v>
       </c>
       <c r="G17">
-        <v>1.877740063771803</v>
+        <v>1.98655869122107</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>29.04908875886876</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.116365032407751</v>
       </c>
       <c r="K17">
-        <v>59.98886492867356</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>39.6099599681255</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.63078274710109</v>
+        <v>29.88120505119274</v>
       </c>
       <c r="O17">
-        <v>49.60952294365631</v>
+        <v>31.30180017077591</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.405028321831361</v>
+        <v>2.27494424135469</v>
       </c>
       <c r="D18">
-        <v>6.700554691754053</v>
+        <v>5.642294579688615</v>
       </c>
       <c r="E18">
-        <v>4.304071233726624</v>
+        <v>11.11338304320715</v>
       </c>
       <c r="F18">
-        <v>61.3583691784048</v>
+        <v>42.32295025858191</v>
       </c>
       <c r="G18">
-        <v>1.884067816391593</v>
+        <v>1.989055362198575</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>28.65352717866584</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.068176911732412</v>
       </c>
       <c r="K18">
-        <v>59.09295450339454</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>39.01043521384235</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>10.67235571248785</v>
+        <v>29.56404287680425</v>
       </c>
       <c r="O18">
-        <v>48.7641842090639</v>
+        <v>30.87731957989937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.353730481599428</v>
+        <v>2.271577581793629</v>
       </c>
       <c r="D19">
-        <v>6.656116028040904</v>
+        <v>5.634798960456295</v>
       </c>
       <c r="E19">
-        <v>4.312537137099954</v>
+        <v>11.07929993088993</v>
       </c>
       <c r="F19">
-        <v>61.00344872384535</v>
+        <v>42.14420855137265</v>
       </c>
       <c r="G19">
-        <v>1.886196210437325</v>
+        <v>1.989901893440747</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>28.51891794755156</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.051911850394463</v>
       </c>
       <c r="K19">
-        <v>58.78914313481034</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>38.80722603716515</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.68647352014225</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>48.47866213602802</v>
+        <v>30.73289094225651</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.58459012609295</v>
+        <v>2.286679911506794</v>
       </c>
       <c r="D20">
-        <v>6.856922968213627</v>
+        <v>5.66873147906097</v>
       </c>
       <c r="E20">
-        <v>4.274377153710604</v>
+        <v>11.23269587854012</v>
       </c>
       <c r="F20">
-        <v>62.60405692989938</v>
+        <v>42.94609572878228</v>
       </c>
       <c r="G20">
-        <v>1.876561867845596</v>
+        <v>1.986097157819593</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>29.12197769233367</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.125307664709791</v>
       </c>
       <c r="K20">
-        <v>60.15448232698152</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>39.7208337451959</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.62310776765849</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>49.76634312166047</v>
+        <v>31.38002815973754</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.36421884160791</v>
+        <v>2.336570234971711</v>
       </c>
       <c r="D21">
-        <v>7.550926567235672</v>
+        <v>5.786327557868627</v>
       </c>
       <c r="E21">
-        <v>4.144636604274633</v>
+        <v>11.74837826824939</v>
       </c>
       <c r="F21">
-        <v>68.071544152589</v>
+        <v>45.72375073237693</v>
       </c>
       <c r="G21">
-        <v>1.842951557378191</v>
+        <v>1.973380796121435</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>31.10213045356565</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.375473755559324</v>
       </c>
       <c r="K21">
-        <v>64.72827229868</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>42.78853582726179</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.41265507647986</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>54.16612179365156</v>
+        <v>33.50638004566004</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.8823221276699</v>
+        <v>2.36852968459734</v>
       </c>
       <c r="D22">
-        <v>8.02620986859567</v>
+        <v>5.865942760512269</v>
       </c>
       <c r="E22">
-        <v>4.058156208199897</v>
+        <v>12.08566518722287</v>
       </c>
       <c r="F22">
-        <v>71.75677139282966</v>
+        <v>47.5246985611486</v>
       </c>
       <c r="G22">
-        <v>1.819676945109556</v>
+        <v>1.965098924695559</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.363507744777</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.541713861505171</v>
       </c>
       <c r="K22">
-        <v>67.7356180115615</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>44.81171733389525</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.27619936822078</v>
+        <v>32.49403281050594</v>
       </c>
       <c r="O22">
-        <v>57.13321766608488</v>
+        <v>34.86197372841892</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.6045825287969</v>
+        <v>2.351532206370205</v>
       </c>
       <c r="D23">
-        <v>7.769987014976232</v>
+        <v>5.823192075729077</v>
       </c>
       <c r="E23">
-        <v>4.104502558513453</v>
+        <v>11.90561855721524</v>
       </c>
       <c r="F23">
-        <v>69.77614774197205</v>
+        <v>46.56710844206059</v>
       </c>
       <c r="G23">
-        <v>1.832248539111318</v>
+        <v>1.969517894033452</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>31.69317636555121</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.452730297489578</v>
       </c>
       <c r="K23">
-        <v>66.1266981987655</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>43.72871489715449</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.34898900411486</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>55.53837099691361</v>
+        <v>34.14147291183363</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.571909259394923</v>
+        <v>2.28585373267954</v>
       </c>
       <c r="D24">
-        <v>6.845838187930281</v>
+        <v>5.666854767951033</v>
       </c>
       <c r="E24">
-        <v>4.276477115622121</v>
+        <v>11.22427094829933</v>
       </c>
       <c r="F24">
-        <v>62.51591572668932</v>
+        <v>42.90222220172908</v>
       </c>
       <c r="G24">
-        <v>1.87709480219004</v>
+        <v>1.98630579351753</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>29.08903734727942</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.12126384740976</v>
       </c>
       <c r="K24">
-        <v>60.07961461103982</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>39.6707112225971</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.62657685217801</v>
+        <v>29.91317649911916</v>
       </c>
       <c r="O24">
-        <v>49.69543085272867</v>
+        <v>31.34467457050674</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.462399223460547</v>
+        <v>2.212316597920774</v>
       </c>
       <c r="D25">
-        <v>5.900135437960176</v>
+        <v>5.509546535754173</v>
       </c>
       <c r="E25">
-        <v>4.458178048882779</v>
+        <v>10.49046269125488</v>
       </c>
       <c r="F25">
-        <v>54.90612067779121</v>
+        <v>38.99815140848821</v>
       </c>
       <c r="G25">
-        <v>1.922064474274264</v>
+        <v>2.004668816523385</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>26.27760987000836</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.775068460321925</v>
       </c>
       <c r="K25">
-        <v>53.47177745916824</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>35.25827925398033</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>10.93479144105887</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>43.57389460066725</v>
+        <v>28.41497854770491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.155959489174622</v>
+        <v>3.184887070376633</v>
       </c>
       <c r="D2">
-        <v>5.402963555601072</v>
+        <v>8.907179426559852</v>
       </c>
       <c r="E2">
-        <v>9.95207524857722</v>
+        <v>13.43293486100976</v>
       </c>
       <c r="F2">
-        <v>36.00356621932114</v>
+        <v>34.97279954082592</v>
       </c>
       <c r="G2">
-        <v>2.018535125273863</v>
+        <v>3.626802777701948</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.29292107263905</v>
+        <v>24.171070806651</v>
       </c>
       <c r="J2">
-        <v>6.529779954628882</v>
+        <v>9.875322075795388</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>26.27397540079815</v>
+        <v>26.2486747980449</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.116451258533526</v>
+        <v>3.173039412892535</v>
       </c>
       <c r="D3">
-        <v>5.336285722063059</v>
+        <v>8.918618001937</v>
       </c>
       <c r="E3">
-        <v>9.589450536726609</v>
+        <v>13.41202101459894</v>
       </c>
       <c r="F3">
-        <v>33.90173506910757</v>
+        <v>34.56710278368384</v>
       </c>
       <c r="G3">
-        <v>2.028202426421648</v>
+        <v>3.630387562387526</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.90247652066671</v>
+        <v>23.91486072157148</v>
       </c>
       <c r="J3">
-        <v>6.369653233748574</v>
+        <v>9.878801804244505</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>24.7748402321336</v>
+        <v>25.97430490216302</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.091570318393179</v>
+        <v>3.165543185052695</v>
       </c>
       <c r="D4">
-        <v>5.298019875621841</v>
+        <v>8.92689574445712</v>
       </c>
       <c r="E4">
-        <v>9.368405775878564</v>
+        <v>13.40211214639553</v>
       </c>
       <c r="F4">
-        <v>32.57748785114467</v>
+        <v>34.3260860907202</v>
       </c>
       <c r="G4">
-        <v>2.034287233897837</v>
+        <v>3.632704804535492</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.02776924949269</v>
+        <v>23.76328479053294</v>
       </c>
       <c r="J4">
-        <v>6.274419361052626</v>
+        <v>9.882766463232553</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>23.83214078322881</v>
+        <v>25.81204298359441</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.081278867888728</v>
+        <v>3.162432947957773</v>
       </c>
       <c r="D5">
-        <v>5.283089423360369</v>
+        <v>8.930584414495634</v>
       </c>
       <c r="E5">
-        <v>9.278822448659966</v>
+        <v>13.39881351554923</v>
       </c>
       <c r="F5">
-        <v>32.02980803108483</v>
+        <v>34.23001325366301</v>
       </c>
       <c r="G5">
-        <v>2.036806473709053</v>
+        <v>3.63367842063957</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.66635477851563</v>
+        <v>23.703025702737</v>
       </c>
       <c r="J5">
-        <v>6.236399954408515</v>
+        <v>9.88484161047321</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>23.44272618089942</v>
+        <v>25.74754968645229</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.079560916210264</v>
+        <v>3.161913154073516</v>
       </c>
       <c r="D6">
-        <v>5.280650005987953</v>
+        <v>8.93121596504305</v>
       </c>
       <c r="E6">
-        <v>9.263979876372133</v>
+        <v>13.39831047878094</v>
       </c>
       <c r="F6">
-        <v>31.93839618640249</v>
+        <v>34.21419303463594</v>
       </c>
       <c r="G6">
-        <v>2.037227245184823</v>
+        <v>3.633841862984546</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.60605311497893</v>
+        <v>23.69311276154815</v>
       </c>
       <c r="J6">
-        <v>6.230134930782792</v>
+        <v>9.885213932416603</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>23.37775823946037</v>
+        <v>25.73694103359396</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.091432134878183</v>
+        <v>3.165501463507233</v>
       </c>
       <c r="D7">
-        <v>5.297815845749485</v>
+        <v>8.926944214058945</v>
       </c>
       <c r="E7">
-        <v>9.367195496510911</v>
+        <v>13.40206466430574</v>
       </c>
       <c r="F7">
-        <v>32.57013351761964</v>
+        <v>34.32478159745972</v>
       </c>
       <c r="G7">
-        <v>2.034321046047151</v>
+        <v>3.632717816198642</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.02291471438996</v>
+        <v>23.76246591904276</v>
       </c>
       <c r="J7">
-        <v>6.273903404360197</v>
+        <v>9.882792589188512</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767603</v>
       </c>
       <c r="O7">
-        <v>23.82690977858513</v>
+        <v>25.8111665158508</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.142468791238381</v>
+        <v>3.180848187150995</v>
       </c>
       <c r="D8">
-        <v>5.379412361242676</v>
+        <v>8.910863099260215</v>
       </c>
       <c r="E8">
-        <v>9.82675880514925</v>
+        <v>13.42511651026996</v>
       </c>
       <c r="F8">
-        <v>35.28607489226079</v>
+        <v>34.83130573294149</v>
       </c>
       <c r="G8">
-        <v>2.02183882380099</v>
+        <v>3.628014766264768</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.81800573924176</v>
+        <v>24.08157950035037</v>
       </c>
       <c r="J8">
-        <v>6.473935797302523</v>
+        <v>9.876142409083496</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656867</v>
       </c>
       <c r="O8">
-        <v>25.76185583155383</v>
+        <v>26.15282793226591</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.237439102650953</v>
+        <v>3.209171912478681</v>
       </c>
       <c r="D9">
-        <v>5.561070325863103</v>
+        <v>8.8892809528718</v>
       </c>
       <c r="E9">
-        <v>10.73745082650514</v>
+        <v>13.49347747762701</v>
       </c>
       <c r="F9">
-        <v>40.3319656602667</v>
+        <v>35.88364097495475</v>
       </c>
       <c r="G9">
-        <v>1.99843733246812</v>
+        <v>3.619708880248592</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.1627404348819</v>
+        <v>24.74981802204079</v>
       </c>
       <c r="J9">
-        <v>6.890195351691903</v>
+        <v>9.877608563381706</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>29.37023142728282</v>
+        <v>26.86879216756163</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.303896406707307</v>
+        <v>3.228886812376412</v>
       </c>
       <c r="D10">
-        <v>5.708370241366687</v>
+        <v>8.879490553274769</v>
       </c>
       <c r="E10">
-        <v>11.40912359277109</v>
+        <v>13.55763621742037</v>
       </c>
       <c r="F10">
-        <v>43.87946306212478</v>
+        <v>36.68574067888016</v>
       </c>
       <c r="G10">
-        <v>1.981735712766508</v>
+        <v>3.614158490423028</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.8071980616448</v>
+        <v>25.26237089453138</v>
       </c>
       <c r="J10">
-        <v>7.210319079726009</v>
+        <v>9.887524230839526</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>32.11559203288166</v>
+        <v>27.41830099875483</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.333374874743881</v>
+        <v>3.237614892093265</v>
       </c>
       <c r="D11">
-        <v>5.778548584464271</v>
+        <v>8.876352657301815</v>
       </c>
       <c r="E11">
-        <v>11.71494952443817</v>
+        <v>13.58979817134244</v>
       </c>
       <c r="F11">
-        <v>45.54356214998471</v>
+        <v>37.05538728041381</v>
       </c>
       <c r="G11">
-        <v>1.974202651561461</v>
+        <v>3.611751841278867</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.97576360411279</v>
+        <v>25.49928966524162</v>
       </c>
       <c r="J11">
-        <v>7.359105706623714</v>
+        <v>9.893949522941311</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>33.37061936570766</v>
+        <v>27.672386500647</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.344426911674267</v>
+        <v>3.240885143119419</v>
       </c>
       <c r="D12">
-        <v>5.805595332009655</v>
+        <v>8.875353429215879</v>
       </c>
       <c r="E12">
-        <v>11.83080051964578</v>
+        <v>13.60239967141692</v>
       </c>
       <c r="F12">
-        <v>46.16667275704878</v>
+        <v>37.19591936505106</v>
       </c>
       <c r="G12">
-        <v>1.97135539802404</v>
+        <v>3.610857396270401</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.41262291420814</v>
+        <v>25.58946456604469</v>
       </c>
       <c r="J12">
-        <v>7.41591603719412</v>
+        <v>9.896657164325664</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>33.83998916685378</v>
+        <v>27.76910816928867</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.342051621278474</v>
+        <v>3.2401823926377</v>
       </c>
       <c r="D13">
-        <v>5.799749065628351</v>
+        <v>8.875560227433061</v>
       </c>
       <c r="E13">
-        <v>11.8058478256866</v>
+        <v>13.59966701647175</v>
       </c>
       <c r="F13">
-        <v>46.03278213195729</v>
+        <v>37.16563065336736</v>
       </c>
       <c r="G13">
-        <v>1.971968434887293</v>
+        <v>3.611049280982884</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.31878364633932</v>
+        <v>25.57002466897496</v>
       </c>
       <c r="J13">
-        <v>7.403659774662248</v>
+        <v>9.896061830545055</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>33.73915815177811</v>
+        <v>27.74825633861114</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.334286366102793</v>
+        <v>3.237884638579147</v>
       </c>
       <c r="D14">
-        <v>5.780764180956856</v>
+        <v>8.876266663110885</v>
       </c>
       <c r="E14">
-        <v>11.72447973636904</v>
+        <v>13.59082647073783</v>
       </c>
       <c r="F14">
-        <v>45.59496492938491</v>
+        <v>37.0669385622324</v>
       </c>
       <c r="G14">
-        <v>1.973968323306364</v>
+        <v>3.61167791662476</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.0118157079873</v>
+        <v>25.50669967607238</v>
       </c>
       <c r="J14">
-        <v>7.36377003250582</v>
+        <v>9.894166785622023</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>33.40935064804826</v>
+        <v>27.68033422296782</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.329515424978464</v>
+        <v>3.236472645432399</v>
       </c>
       <c r="D15">
-        <v>5.769197345268497</v>
+        <v>8.876723985602524</v>
       </c>
       <c r="E15">
-        <v>11.67464525258343</v>
+        <v>13.58546622723222</v>
       </c>
       <c r="F15">
-        <v>45.32588245127356</v>
+        <v>37.00655521686857</v>
       </c>
       <c r="G15">
-        <v>1.97519388472319</v>
+        <v>3.612065172022333</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.82306245286812</v>
+        <v>25.4679686444845</v>
       </c>
       <c r="J15">
-        <v>7.339397942368145</v>
+        <v>9.893041739964682</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>33.20657797743505</v>
+        <v>27.63879317500566</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.301954537432882</v>
+        <v>3.228311548051427</v>
       </c>
       <c r="D16">
-        <v>5.703849007145687</v>
+        <v>8.879722084771453</v>
       </c>
       <c r="E16">
-        <v>11.38914234169621</v>
+        <v>13.55559378609648</v>
       </c>
       <c r="F16">
-        <v>43.76970468899921</v>
+        <v>36.66166815196529</v>
       </c>
       <c r="G16">
-        <v>1.982228990291213</v>
+        <v>3.614318141252793</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.73002196617417</v>
+        <v>25.24695633307867</v>
       </c>
       <c r="J16">
-        <v>7.200660062232324</v>
+        <v>9.887142786062523</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>32.03273227595002</v>
+        <v>27.4017712756022</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.284851968645842</v>
+        <v>3.223243194034749</v>
       </c>
       <c r="D17">
-        <v>5.664582357471044</v>
+        <v>8.88189821450387</v>
       </c>
       <c r="E17">
-        <v>11.21406063245647</v>
+        <v>13.53802649215905</v>
       </c>
       <c r="F17">
-        <v>42.84902544042065</v>
+        <v>36.4512189864138</v>
       </c>
       <c r="G17">
-        <v>1.98655869122107</v>
+        <v>3.615730477979618</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.04908875886876</v>
+        <v>25.11227666083764</v>
       </c>
       <c r="J17">
-        <v>7.116365032407751</v>
+        <v>9.884013840549242</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>31.30180017077591</v>
+        <v>27.25735771348802</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.27494424135469</v>
+        <v>3.220305409422927</v>
       </c>
       <c r="D18">
-        <v>5.642294579688615</v>
+        <v>8.883273731021808</v>
       </c>
       <c r="E18">
-        <v>11.11338304320715</v>
+        <v>13.52820271101434</v>
       </c>
       <c r="F18">
-        <v>42.32295025858191</v>
+        <v>36.33063071707114</v>
       </c>
       <c r="G18">
-        <v>1.989055362198575</v>
+        <v>3.616553953218962</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.65352717866584</v>
+        <v>25.03517087522813</v>
       </c>
       <c r="J18">
-        <v>7.068176911732412</v>
+        <v>9.882394425401978</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>30.87731957989937</v>
+        <v>27.17468699768372</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.271577581793629</v>
+        <v>3.21930685413352</v>
       </c>
       <c r="D19">
-        <v>5.634798960456295</v>
+        <v>8.883760735918965</v>
       </c>
       <c r="E19">
-        <v>11.07929993088993</v>
+        <v>13.52492487384914</v>
       </c>
       <c r="F19">
-        <v>42.14420855137265</v>
+        <v>36.28988400255999</v>
       </c>
       <c r="G19">
-        <v>1.989901893440747</v>
+        <v>3.616834683654054</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.51891794755156</v>
+        <v>25.00912821015849</v>
       </c>
       <c r="J19">
-        <v>7.051911850394463</v>
+        <v>9.881877102131813</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>30.73289094225651</v>
+        <v>27.14676608934397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.286679911506794</v>
+        <v>3.223785070506256</v>
       </c>
       <c r="D20">
-        <v>5.66873147906097</v>
+        <v>8.881653743502477</v>
       </c>
       <c r="E20">
-        <v>11.23269587854012</v>
+        <v>13.53986757158044</v>
       </c>
       <c r="F20">
-        <v>42.94609572878228</v>
+        <v>36.4735753601234</v>
       </c>
       <c r="G20">
-        <v>1.986097157819593</v>
+        <v>3.615578980493327</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.12197769233367</v>
+        <v>25.12657703735449</v>
       </c>
       <c r="J20">
-        <v>7.125307664709791</v>
+        <v>9.884328269894427</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484619</v>
       </c>
       <c r="O20">
-        <v>31.38002815973754</v>
+        <v>27.27269082254472</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.336570234971711</v>
+        <v>3.238560493944457</v>
       </c>
       <c r="D21">
-        <v>5.786327557868627</v>
+        <v>8.876054037480063</v>
       </c>
       <c r="E21">
-        <v>11.74837826824939</v>
+        <v>13.59341173398027</v>
       </c>
       <c r="F21">
-        <v>45.72375073237693</v>
+        <v>37.09591279659214</v>
       </c>
       <c r="G21">
-        <v>1.973380796121435</v>
+        <v>3.611492813237964</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.10213045356565</v>
+        <v>25.52528795337747</v>
       </c>
       <c r="J21">
-        <v>7.375473755559324</v>
+        <v>9.894715963076063</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554066</v>
       </c>
       <c r="O21">
-        <v>33.50638004566004</v>
+        <v>27.70027157568724</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.36852968459734</v>
+        <v>3.248013611458014</v>
       </c>
       <c r="D22">
-        <v>5.865942760512269</v>
+        <v>8.873495965859222</v>
       </c>
       <c r="E22">
-        <v>12.08566518722287</v>
+        <v>13.63086546988129</v>
       </c>
       <c r="F22">
-        <v>47.5246985611486</v>
+        <v>37.50582122806112</v>
       </c>
       <c r="G22">
-        <v>1.965098924695559</v>
+        <v>3.608920729752568</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.363507744777</v>
+        <v>25.78850597668649</v>
       </c>
       <c r="J22">
-        <v>7.541713861505171</v>
+        <v>9.903104544899309</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>34.86197372841892</v>
+        <v>27.982624045944</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.351532206370205</v>
+        <v>3.242987029473977</v>
       </c>
       <c r="D23">
-        <v>5.823192075729077</v>
+        <v>8.874760529569944</v>
       </c>
       <c r="E23">
-        <v>11.90561855721524</v>
+        <v>13.61065260601627</v>
       </c>
       <c r="F23">
-        <v>46.56710844206059</v>
+        <v>37.28679771695708</v>
       </c>
       <c r="G23">
-        <v>1.969517894033452</v>
+        <v>3.610284523830297</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.69317636555121</v>
+        <v>25.64780700570665</v>
       </c>
       <c r="J23">
-        <v>7.452730297489578</v>
+        <v>9.898481347597302</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>34.14147291183363</v>
+        <v>27.83168995744535</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.28585373267954</v>
+        <v>3.223540162627626</v>
       </c>
       <c r="D24">
-        <v>5.666854767951033</v>
+        <v>8.881763881248403</v>
       </c>
       <c r="E24">
-        <v>11.22427094829933</v>
+        <v>13.53903435982324</v>
       </c>
       <c r="F24">
-        <v>42.90222220172908</v>
+        <v>36.46346678210779</v>
       </c>
       <c r="G24">
-        <v>1.98630579351753</v>
+        <v>3.615647436663764</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.08903734727942</v>
+        <v>25.12011082369111</v>
       </c>
       <c r="J24">
-        <v>7.12126384740976</v>
+        <v>9.884185557348149</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>31.34467457050674</v>
+        <v>27.26575761288651</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.212316597920774</v>
+        <v>3.201700739316915</v>
       </c>
       <c r="D25">
-        <v>5.509546535754173</v>
+        <v>8.89405394664173</v>
       </c>
       <c r="E25">
-        <v>10.49046269125488</v>
+        <v>13.47252147058638</v>
       </c>
       <c r="F25">
-        <v>38.99815140848821</v>
+        <v>35.59335385997608</v>
       </c>
       <c r="G25">
-        <v>2.004668816523385</v>
+        <v>3.621858415089816</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.27760987000836</v>
+        <v>24.56493140925214</v>
       </c>
       <c r="J25">
-        <v>6.775068460321925</v>
+        <v>9.87565867579619</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>28.41497854770491</v>
+        <v>26.670643588452</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.184887070376633</v>
+        <v>2.155959489174622</v>
       </c>
       <c r="D2">
-        <v>8.907179426559852</v>
+        <v>5.402963555601175</v>
       </c>
       <c r="E2">
-        <v>13.43293486100976</v>
+        <v>9.952075248577257</v>
       </c>
       <c r="F2">
-        <v>34.97279954082592</v>
+        <v>36.00356621932115</v>
       </c>
       <c r="G2">
-        <v>3.626802777701948</v>
+        <v>2.018535125273996</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.171070806651</v>
+        <v>24.29292107263904</v>
       </c>
       <c r="J2">
-        <v>9.875322075795388</v>
+        <v>6.529779954628889</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>26.2486747980449</v>
+        <v>26.27397540079813</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.173039412892535</v>
+        <v>2.116451258533408</v>
       </c>
       <c r="D3">
-        <v>8.918618001937</v>
+        <v>5.336285722063005</v>
       </c>
       <c r="E3">
-        <v>13.41202101459894</v>
+        <v>9.589450536726627</v>
       </c>
       <c r="F3">
-        <v>34.56710278368384</v>
+        <v>33.90173506910759</v>
       </c>
       <c r="G3">
-        <v>3.630387562387526</v>
+        <v>2.028202426421514</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.91486072157148</v>
+        <v>22.90247652066675</v>
       </c>
       <c r="J3">
-        <v>9.878801804244505</v>
+        <v>6.369653233748631</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>25.97430490216302</v>
+        <v>24.77484023213363</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.165543185052695</v>
+        <v>2.091570318393424</v>
       </c>
       <c r="D4">
-        <v>8.92689574445712</v>
+        <v>5.298019875621636</v>
       </c>
       <c r="E4">
-        <v>13.40211214639553</v>
+        <v>9.368405775878498</v>
       </c>
       <c r="F4">
-        <v>34.3260860907202</v>
+        <v>32.57748785114467</v>
       </c>
       <c r="G4">
-        <v>3.632704804535492</v>
+        <v>2.034287233897568</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.76328479053294</v>
+        <v>22.02776924949269</v>
       </c>
       <c r="J4">
-        <v>9.882766463232553</v>
+        <v>6.274419361052666</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>25.81204298359441</v>
+        <v>23.83214078322883</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.162432947957773</v>
+        <v>2.081278867888868</v>
       </c>
       <c r="D5">
-        <v>8.930584414495634</v>
+        <v>5.283089423360216</v>
       </c>
       <c r="E5">
-        <v>13.39881351554923</v>
+        <v>9.278822448659861</v>
       </c>
       <c r="F5">
-        <v>34.23001325366301</v>
+        <v>32.02980803108477</v>
       </c>
       <c r="G5">
-        <v>3.63367842063957</v>
+        <v>2.036806473709324</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.703025702737</v>
+        <v>21.66635477851561</v>
       </c>
       <c r="J5">
-        <v>9.88484161047321</v>
+        <v>6.236399954408527</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>25.74754968645229</v>
+        <v>23.44272618089939</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.161913154073516</v>
+        <v>2.079560916210128</v>
       </c>
       <c r="D6">
-        <v>8.93121596504305</v>
+        <v>5.280650005987921</v>
       </c>
       <c r="E6">
-        <v>13.39831047878094</v>
+        <v>9.263979876372137</v>
       </c>
       <c r="F6">
-        <v>34.21419303463594</v>
+        <v>31.93839618640247</v>
       </c>
       <c r="G6">
-        <v>3.633841862984546</v>
+        <v>2.037227245184827</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.69311276154815</v>
+        <v>21.60605311497895</v>
       </c>
       <c r="J6">
-        <v>9.885213932416603</v>
+        <v>6.230134930782815</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>25.73694103359396</v>
+        <v>23.37775823946038</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.165501463507233</v>
+        <v>2.091432134878322</v>
       </c>
       <c r="D7">
-        <v>8.926944214058945</v>
+        <v>5.297815845749434</v>
       </c>
       <c r="E7">
-        <v>13.40206466430574</v>
+        <v>9.367195496510963</v>
       </c>
       <c r="F7">
-        <v>34.32478159745972</v>
+        <v>32.5701335176196</v>
       </c>
       <c r="G7">
-        <v>3.632717816198642</v>
+        <v>2.034321046047157</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.76246591904276</v>
+        <v>22.02291471438993</v>
       </c>
       <c r="J7">
-        <v>9.882792589188512</v>
+        <v>6.273903404360202</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767603</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>25.8111665158508</v>
+        <v>23.8269097785851</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.180848187150995</v>
+        <v>2.142468791238386</v>
       </c>
       <c r="D8">
-        <v>8.910863099260215</v>
+        <v>5.37941236124261</v>
       </c>
       <c r="E8">
-        <v>13.42511651026996</v>
+        <v>9.826758805149195</v>
       </c>
       <c r="F8">
-        <v>34.83130573294149</v>
+        <v>35.28607489226079</v>
       </c>
       <c r="G8">
-        <v>3.628014766264768</v>
+        <v>2.021838823801126</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.08157950035037</v>
+        <v>23.81800573924177</v>
       </c>
       <c r="J8">
-        <v>9.876142409083496</v>
+        <v>6.473935797302498</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656867</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>26.15282793226591</v>
+        <v>25.76185583155384</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.209171912478681</v>
+        <v>2.237439102651069</v>
       </c>
       <c r="D9">
-        <v>8.8892809528718</v>
+        <v>5.561070325863183</v>
       </c>
       <c r="E9">
-        <v>13.49347747762701</v>
+        <v>10.73745082650516</v>
       </c>
       <c r="F9">
-        <v>35.88364097495475</v>
+        <v>40.3319656602667</v>
       </c>
       <c r="G9">
-        <v>3.619708880248592</v>
+        <v>1.998437332467987</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.74981802204079</v>
+        <v>27.16274043488189</v>
       </c>
       <c r="J9">
-        <v>9.877608563381706</v>
+        <v>6.890195351691903</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>26.86879216756163</v>
+        <v>29.37023142728281</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.228886812376412</v>
+        <v>2.303896406707175</v>
       </c>
       <c r="D10">
-        <v>8.879490553274769</v>
+        <v>5.708370241366622</v>
       </c>
       <c r="E10">
-        <v>13.55763621742037</v>
+        <v>11.40912359277107</v>
       </c>
       <c r="F10">
-        <v>36.68574067888016</v>
+        <v>43.87946306212478</v>
       </c>
       <c r="G10">
-        <v>3.614158490423028</v>
+        <v>1.981735712766513</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.26237089453138</v>
+        <v>29.80719806164477</v>
       </c>
       <c r="J10">
-        <v>9.887524230839526</v>
+        <v>7.210319079726012</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>27.41830099875483</v>
+        <v>32.11559203288166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.237614892093265</v>
+        <v>2.333374874743881</v>
       </c>
       <c r="D11">
-        <v>8.876352657301815</v>
+        <v>5.778548584464322</v>
       </c>
       <c r="E11">
-        <v>13.58979817134244</v>
+        <v>11.71494952443816</v>
       </c>
       <c r="F11">
-        <v>37.05538728041381</v>
+        <v>45.54356214998464</v>
       </c>
       <c r="G11">
-        <v>3.611751841278867</v>
+        <v>1.974202651561594</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.49928966524162</v>
+        <v>30.97576360411274</v>
       </c>
       <c r="J11">
-        <v>9.893949522941311</v>
+        <v>7.359105706623668</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374475</v>
       </c>
       <c r="O11">
-        <v>27.672386500647</v>
+        <v>33.37061936570759</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.240885143119419</v>
+        <v>2.344426911674276</v>
       </c>
       <c r="D12">
-        <v>8.875353429215879</v>
+        <v>5.805595332009586</v>
       </c>
       <c r="E12">
-        <v>13.60239967141692</v>
+        <v>11.83080051964579</v>
       </c>
       <c r="F12">
-        <v>37.19591936505106</v>
+        <v>46.16667275704881</v>
       </c>
       <c r="G12">
-        <v>3.610857396270401</v>
+        <v>1.971355398024171</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.58946456604469</v>
+        <v>31.41262291420813</v>
       </c>
       <c r="J12">
-        <v>9.896657164325664</v>
+        <v>7.415916037194132</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>27.76910816928867</v>
+        <v>33.83998916685377</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.2401823926377</v>
+        <v>2.342051621278361</v>
       </c>
       <c r="D13">
-        <v>8.875560227433061</v>
+        <v>5.799749065628361</v>
       </c>
       <c r="E13">
-        <v>13.59966701647175</v>
+        <v>11.80584782568661</v>
       </c>
       <c r="F13">
-        <v>37.16563065336736</v>
+        <v>46.03278213195719</v>
       </c>
       <c r="G13">
-        <v>3.611049280982884</v>
+        <v>1.971968434887299</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.57002466897496</v>
+        <v>31.31878364633924</v>
       </c>
       <c r="J13">
-        <v>9.896061830545055</v>
+        <v>7.403659774662286</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>27.74825633861114</v>
+        <v>33.73915815177801</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.237884638579147</v>
+        <v>2.334286366102766</v>
       </c>
       <c r="D14">
-        <v>8.876266663110885</v>
+        <v>5.780764180956894</v>
       </c>
       <c r="E14">
-        <v>13.59082647073783</v>
+        <v>11.72447973636904</v>
       </c>
       <c r="F14">
-        <v>37.0669385622324</v>
+        <v>45.59496492938494</v>
       </c>
       <c r="G14">
-        <v>3.61167791662476</v>
+        <v>1.973968323306364</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.50669967607238</v>
+        <v>31.0118157079873</v>
       </c>
       <c r="J14">
-        <v>9.894166785622023</v>
+        <v>7.363770032505829</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>27.68033422296782</v>
+        <v>33.40935064804827</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.236472645432399</v>
+        <v>2.329515424978577</v>
       </c>
       <c r="D15">
-        <v>8.876723985602524</v>
+        <v>5.769197345268497</v>
       </c>
       <c r="E15">
-        <v>13.58546622723222</v>
+        <v>11.67464525258342</v>
       </c>
       <c r="F15">
-        <v>37.00655521686857</v>
+        <v>45.32588245127354</v>
       </c>
       <c r="G15">
-        <v>3.612065172022333</v>
+        <v>1.975193884723185</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.4679686444845</v>
+        <v>30.82306245286811</v>
       </c>
       <c r="J15">
-        <v>9.893041739964682</v>
+        <v>7.339397942368139</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>27.63879317500566</v>
+        <v>33.20657797743502</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.228311548051427</v>
+        <v>2.301954537432882</v>
       </c>
       <c r="D16">
-        <v>8.879722084771453</v>
+        <v>5.703849007145633</v>
       </c>
       <c r="E16">
-        <v>13.55559378609648</v>
+        <v>11.38914234169622</v>
       </c>
       <c r="F16">
-        <v>36.66166815196529</v>
+        <v>43.76970468899918</v>
       </c>
       <c r="G16">
-        <v>3.614318141252793</v>
+        <v>1.98222899029108</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.24695633307867</v>
+        <v>29.73002196617416</v>
       </c>
       <c r="J16">
-        <v>9.887142786062523</v>
+        <v>7.200660062232337</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>27.4017712756022</v>
+        <v>32.03273227595</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.223243194034749</v>
+        <v>2.284851968645816</v>
       </c>
       <c r="D17">
-        <v>8.88189821450387</v>
+        <v>5.664582357470889</v>
       </c>
       <c r="E17">
-        <v>13.53802649215905</v>
+        <v>11.21406063245647</v>
       </c>
       <c r="F17">
-        <v>36.4512189864138</v>
+        <v>42.84902544042065</v>
       </c>
       <c r="G17">
-        <v>3.615730477979618</v>
+        <v>1.986558691221196</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.11227666083764</v>
+        <v>29.04908875886875</v>
       </c>
       <c r="J17">
-        <v>9.884013840549242</v>
+        <v>7.116365032407766</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>27.25735771348802</v>
+        <v>31.30180017077591</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.220305409422927</v>
+        <v>2.274944241354788</v>
       </c>
       <c r="D18">
-        <v>8.883273731021808</v>
+        <v>5.64229457968856</v>
       </c>
       <c r="E18">
-        <v>13.52820271101434</v>
+        <v>11.11338304320716</v>
       </c>
       <c r="F18">
-        <v>36.33063071707114</v>
+        <v>42.32295025858192</v>
       </c>
       <c r="G18">
-        <v>3.616553953218962</v>
+        <v>1.989055362198443</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.03517087522813</v>
+        <v>28.65352717866585</v>
       </c>
       <c r="J18">
-        <v>9.882394425401978</v>
+        <v>7.068176911732412</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>27.17468699768372</v>
+        <v>30.87731957989937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.21930685413352</v>
+        <v>2.271577581793506</v>
       </c>
       <c r="D19">
-        <v>8.883760735918965</v>
+        <v>5.634798960456338</v>
       </c>
       <c r="E19">
-        <v>13.52492487384914</v>
+        <v>11.07929993088992</v>
       </c>
       <c r="F19">
-        <v>36.28988400255999</v>
+        <v>42.14420855137269</v>
       </c>
       <c r="G19">
-        <v>3.616834683654054</v>
+        <v>1.989901893440749</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.00912821015849</v>
+        <v>28.51891794755157</v>
       </c>
       <c r="J19">
-        <v>9.881877102131813</v>
+        <v>7.051911850394466</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>27.14676608934397</v>
+        <v>30.73289094225652</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.223785070506256</v>
+        <v>2.286679911506582</v>
       </c>
       <c r="D20">
-        <v>8.881653743502477</v>
+        <v>5.668731479060868</v>
       </c>
       <c r="E20">
-        <v>13.53986757158044</v>
+        <v>11.23269587854008</v>
       </c>
       <c r="F20">
-        <v>36.4735753601234</v>
+        <v>42.94609572878228</v>
       </c>
       <c r="G20">
-        <v>3.615578980493327</v>
+        <v>1.986097157819462</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.12657703735449</v>
+        <v>29.12197769233369</v>
       </c>
       <c r="J20">
-        <v>9.884328269894427</v>
+        <v>7.125307664709779</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484619</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>27.27269082254472</v>
+        <v>31.38002815973755</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.238560493944457</v>
+        <v>2.336570234971571</v>
       </c>
       <c r="D21">
-        <v>8.876054037480063</v>
+        <v>5.786327557868637</v>
       </c>
       <c r="E21">
-        <v>13.59341173398027</v>
+        <v>11.7483782682494</v>
       </c>
       <c r="F21">
-        <v>37.09591279659214</v>
+        <v>45.72375073237698</v>
       </c>
       <c r="G21">
-        <v>3.611492813237964</v>
+        <v>1.973380796121567</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.52528795337747</v>
+        <v>31.1021304535657</v>
       </c>
       <c r="J21">
-        <v>9.894715963076063</v>
+        <v>7.375473755559343</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554066</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>27.70027157568724</v>
+        <v>33.50638004566014</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.248013611458014</v>
+        <v>2.368529684597108</v>
       </c>
       <c r="D22">
-        <v>8.873495965859222</v>
+        <v>5.865942760512248</v>
       </c>
       <c r="E22">
-        <v>13.63086546988129</v>
+        <v>12.08566518722285</v>
       </c>
       <c r="F22">
-        <v>37.50582122806112</v>
+        <v>47.52469856114858</v>
       </c>
       <c r="G22">
-        <v>3.608920729752568</v>
+        <v>1.965098924695827</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.78850597668649</v>
+        <v>32.36350774477695</v>
       </c>
       <c r="J22">
-        <v>9.903104544899309</v>
+        <v>7.541713861505139</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>27.982624045944</v>
+        <v>34.8619737284189</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.242987029473977</v>
+        <v>2.351532206370308</v>
       </c>
       <c r="D23">
-        <v>8.874760529569944</v>
+        <v>5.823192075728977</v>
       </c>
       <c r="E23">
-        <v>13.61065260601627</v>
+        <v>11.90561855721524</v>
       </c>
       <c r="F23">
-        <v>37.28679771695708</v>
+        <v>46.56710844206059</v>
       </c>
       <c r="G23">
-        <v>3.610284523830297</v>
+        <v>1.969517894033449</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.64780700570665</v>
+        <v>31.6931763655512</v>
       </c>
       <c r="J23">
-        <v>9.898481347597302</v>
+        <v>7.452730297489615</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>27.83168995744535</v>
+        <v>34.14147291183362</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.223540162627626</v>
+        <v>2.285853732679654</v>
       </c>
       <c r="D24">
-        <v>8.881763881248403</v>
+        <v>5.666854767950878</v>
       </c>
       <c r="E24">
-        <v>13.53903435982324</v>
+        <v>11.22427094829931</v>
       </c>
       <c r="F24">
-        <v>36.46346678210779</v>
+        <v>42.90222220172906</v>
       </c>
       <c r="G24">
-        <v>3.615647436663764</v>
+        <v>1.986305793517528</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.12011082369111</v>
+        <v>29.08903734727937</v>
       </c>
       <c r="J24">
-        <v>9.884185557348149</v>
+        <v>7.12126384740976</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>27.26575761288651</v>
+        <v>31.34467457050668</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.201700739316915</v>
+        <v>2.212316597920656</v>
       </c>
       <c r="D25">
-        <v>8.89405394664173</v>
+        <v>5.509546535754044</v>
       </c>
       <c r="E25">
-        <v>13.47252147058638</v>
+        <v>10.49046269125494</v>
       </c>
       <c r="F25">
-        <v>35.59335385997608</v>
+        <v>38.99815140848821</v>
       </c>
       <c r="G25">
-        <v>3.621858415089816</v>
+        <v>2.004668816523516</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.56493140925214</v>
+        <v>26.27760987000834</v>
       </c>
       <c r="J25">
-        <v>9.87565867579619</v>
+        <v>6.775068460321959</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>26.670643588452</v>
+        <v>28.41497854770489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.155959489174622</v>
+        <v>5.425136041669416</v>
       </c>
       <c r="D2">
-        <v>5.402963555601175</v>
+        <v>4.722283392189565</v>
       </c>
       <c r="E2">
-        <v>9.952075248577257</v>
+        <v>14.47212304948464</v>
       </c>
       <c r="F2">
-        <v>36.00356621932115</v>
+        <v>16.93150888089318</v>
       </c>
       <c r="G2">
-        <v>2.018535125273996</v>
+        <v>20.78501230289816</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.148475664232687</v>
       </c>
       <c r="I2">
-        <v>24.29292107263904</v>
+        <v>3.852194537579021</v>
       </c>
       <c r="J2">
-        <v>6.529779954628889</v>
+        <v>8.221618346004679</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.77032222193749</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.9581866978225</v>
       </c>
       <c r="N2">
-        <v>25.60720851682377</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>26.27397540079813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.88495219772596</v>
+      </c>
+      <c r="P2">
+        <v>12.32375735445211</v>
+      </c>
+      <c r="Q2">
+        <v>13.34479637810351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.116451258533408</v>
+        <v>5.155555170847938</v>
       </c>
       <c r="D3">
-        <v>5.336285722063005</v>
+        <v>4.518696228392616</v>
       </c>
       <c r="E3">
-        <v>9.589450536726627</v>
+        <v>13.81731187686929</v>
       </c>
       <c r="F3">
-        <v>33.90173506910759</v>
+        <v>16.44565817555375</v>
       </c>
       <c r="G3">
-        <v>2.028202426421514</v>
+        <v>20.10439827146615</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.960511872418323</v>
       </c>
       <c r="I3">
-        <v>22.90247652066675</v>
+        <v>3.699153351845223</v>
       </c>
       <c r="J3">
-        <v>6.369653233748631</v>
+        <v>8.198394748163027</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.52639139250902</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.95940236950418</v>
       </c>
       <c r="N3">
-        <v>24.22561817997341</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>24.77484023213363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.91130121772851</v>
+      </c>
+      <c r="P3">
+        <v>12.3489325574568</v>
+      </c>
+      <c r="Q3">
+        <v>13.17232917579408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.091570318393424</v>
+        <v>4.977311779968363</v>
       </c>
       <c r="D4">
-        <v>5.298019875621636</v>
+        <v>4.388528216026717</v>
       </c>
       <c r="E4">
-        <v>9.368405775878498</v>
+        <v>13.39875282015786</v>
       </c>
       <c r="F4">
-        <v>32.57748785114467</v>
+        <v>16.14786696803146</v>
       </c>
       <c r="G4">
-        <v>2.034287233897568</v>
+        <v>19.68469857039791</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.840858096194849</v>
       </c>
       <c r="I4">
-        <v>22.02776924949269</v>
+        <v>3.601787344596967</v>
       </c>
       <c r="J4">
-        <v>6.274419361052666</v>
+        <v>8.186846982520853</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.37713019583212</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.31072147671979</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>23.83214078322883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.28176442750771</v>
+      </c>
+      <c r="P4">
+        <v>12.36697465299112</v>
+      </c>
+      <c r="Q4">
+        <v>13.07078219193711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.081278867888868</v>
+        <v>4.888966005010295</v>
       </c>
       <c r="D5">
-        <v>5.283089423360216</v>
+        <v>4.335518558304665</v>
       </c>
       <c r="E5">
-        <v>9.278822448659861</v>
+        <v>13.22478912641799</v>
       </c>
       <c r="F5">
-        <v>32.02980803108477</v>
+        <v>16.02053247858468</v>
       </c>
       <c r="G5">
-        <v>2.036806473709324</v>
+        <v>19.50191141162242</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.790852582320455</v>
       </c>
       <c r="I5">
-        <v>21.66635477851561</v>
+        <v>3.561227780917307</v>
       </c>
       <c r="J5">
-        <v>6.236399954408527</v>
+        <v>8.181061846438755</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.30905105606681</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.03494486097264</v>
       </c>
       <c r="N5">
-        <v>22.96331756195407</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>23.44272618089939</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.01617409142814</v>
+      </c>
+      <c r="P5">
+        <v>12.37567761570361</v>
+      </c>
+      <c r="Q5">
+        <v>13.02591311580648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.079560916210128</v>
+        <v>4.858776123908418</v>
       </c>
       <c r="D6">
-        <v>5.280650005987921</v>
+        <v>4.328232514952385</v>
       </c>
       <c r="E6">
-        <v>9.263979876372137</v>
+        <v>13.19644058018509</v>
       </c>
       <c r="F6">
-        <v>31.93839618640247</v>
+        <v>15.99172947190264</v>
       </c>
       <c r="G6">
-        <v>2.037227245184827</v>
+        <v>19.45743466608909</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.782281151182581</v>
       </c>
       <c r="I6">
-        <v>21.60605311497895</v>
+        <v>3.554576758634225</v>
       </c>
       <c r="J6">
-        <v>6.230134930782815</v>
+        <v>8.178004732466048</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.28865934405372</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.98543638438989</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>23.37775823946038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.97014100601716</v>
+      </c>
+      <c r="P6">
+        <v>12.37803828132427</v>
+      </c>
+      <c r="Q6">
+        <v>13.01291503611624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.091432134878322</v>
+        <v>4.934928019441958</v>
       </c>
       <c r="D7">
-        <v>5.297815845749434</v>
+        <v>4.392111565108105</v>
       </c>
       <c r="E7">
-        <v>9.367195496510963</v>
+        <v>13.39852475979633</v>
       </c>
       <c r="F7">
-        <v>32.5701335176196</v>
+        <v>16.1253563424633</v>
       </c>
       <c r="G7">
-        <v>2.034321046047157</v>
+        <v>19.64406881366133</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.839642136363169</v>
       </c>
       <c r="I7">
-        <v>22.02291471438993</v>
+        <v>3.601386399142609</v>
       </c>
       <c r="J7">
-        <v>6.273903404360202</v>
+        <v>8.180940688452472</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.35147995703454</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.29851418382089</v>
       </c>
       <c r="N7">
-        <v>23.33096569062625</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>23.8269097785851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.27430502447997</v>
+      </c>
+      <c r="P7">
+        <v>12.36952962348095</v>
+      </c>
+      <c r="Q7">
+        <v>13.05489895929627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.142468791238386</v>
+        <v>5.28339460960148</v>
       </c>
       <c r="D8">
-        <v>5.37941236124261</v>
+        <v>4.658616644035011</v>
       </c>
       <c r="E8">
-        <v>9.826758805149195</v>
+        <v>14.25251479515851</v>
       </c>
       <c r="F8">
-        <v>35.28607489226079</v>
+        <v>16.73737523087138</v>
       </c>
       <c r="G8">
-        <v>2.021838823801126</v>
+        <v>20.5022518614539</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.083846621864954</v>
       </c>
       <c r="I8">
-        <v>23.81800573924177</v>
+        <v>3.800097653434046</v>
       </c>
       <c r="J8">
-        <v>6.473935797302498</v>
+        <v>8.205378536339353</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.65406193172837</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.61067265780619</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>25.76185583155384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.55106138970229</v>
+      </c>
+      <c r="P8">
+        <v>12.33530510211181</v>
+      </c>
+      <c r="Q8">
+        <v>13.26453569584557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.237439102651069</v>
+        <v>5.932305397721151</v>
       </c>
       <c r="D9">
-        <v>5.561070325863183</v>
+        <v>5.131821022251696</v>
       </c>
       <c r="E9">
-        <v>10.73745082650516</v>
+        <v>15.78848375087552</v>
       </c>
       <c r="F9">
-        <v>40.3319656602667</v>
+        <v>17.97036286447557</v>
       </c>
       <c r="G9">
-        <v>1.998437332467987</v>
+        <v>22.22601639307124</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.530579214456645</v>
       </c>
       <c r="I9">
-        <v>27.16274043488189</v>
+        <v>4.163684812012485</v>
       </c>
       <c r="J9">
-        <v>6.890195351691903</v>
+        <v>8.285806846778833</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.29209374325096</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.91418589356493</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>29.37023142728281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.80560709964547</v>
+      </c>
+      <c r="P9">
+        <v>12.28467273099085</v>
+      </c>
+      <c r="Q9">
+        <v>13.73644704132416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.303896406707175</v>
+        <v>6.34074672415943</v>
       </c>
       <c r="D10">
-        <v>5.708370241366622</v>
+        <v>5.471031528175816</v>
       </c>
       <c r="E10">
-        <v>11.40912359277107</v>
+        <v>16.32280163811696</v>
       </c>
       <c r="F10">
-        <v>43.87946306212478</v>
+        <v>18.77456945785772</v>
       </c>
       <c r="G10">
-        <v>1.981735712766513</v>
+        <v>23.30124790173869</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.817367172576823</v>
       </c>
       <c r="I10">
-        <v>29.80719806164477</v>
+        <v>4.412193241685429</v>
       </c>
       <c r="J10">
-        <v>7.210319079726012</v>
+        <v>8.330748227457255</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.69124452684342</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>20.43514469795802</v>
       </c>
       <c r="N10">
-        <v>30.48602834203862</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>32.11559203288166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.02243175106253</v>
+      </c>
+      <c r="P10">
+        <v>12.28722109616709</v>
+      </c>
+      <c r="Q10">
+        <v>14.03132768844964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.333374874743881</v>
+        <v>6.571687442374325</v>
       </c>
       <c r="D11">
-        <v>5.778548584464322</v>
+        <v>5.769459042316873</v>
       </c>
       <c r="E11">
-        <v>11.71494952443816</v>
+        <v>12.44245892249846</v>
       </c>
       <c r="F11">
-        <v>45.54356214998464</v>
+        <v>18.39664308691271</v>
       </c>
       <c r="G11">
-        <v>1.974202651561594</v>
+        <v>22.45276093870013</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.427152853461229</v>
       </c>
       <c r="I11">
-        <v>30.97576360411274</v>
+        <v>4.494742230331159</v>
       </c>
       <c r="J11">
-        <v>7.359105706623668</v>
+        <v>8.120776277327399</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.35104051753749</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>21.13767681732746</v>
       </c>
       <c r="N11">
-        <v>31.41016321374475</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>33.37061936570759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.15579606638461</v>
+      </c>
+      <c r="P11">
+        <v>12.52417973355563</v>
+      </c>
+      <c r="Q11">
+        <v>13.58490423052926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.344426911674276</v>
+        <v>6.74328917200766</v>
       </c>
       <c r="D12">
-        <v>5.805595332009586</v>
+        <v>5.948109910837358</v>
       </c>
       <c r="E12">
-        <v>11.83080051964579</v>
+        <v>9.639890061042443</v>
       </c>
       <c r="F12">
-        <v>46.16667275704881</v>
+        <v>17.92423471366455</v>
       </c>
       <c r="G12">
-        <v>1.971355398024171</v>
+        <v>21.54244220701319</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.505584025872536</v>
       </c>
       <c r="I12">
-        <v>31.41262291420813</v>
+        <v>4.51550391701447</v>
       </c>
       <c r="J12">
-        <v>7.415916037194132</v>
+        <v>7.937452497668682</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.00666063107694</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>21.43427877578081</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>33.83998916685377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.31733687114734</v>
+      </c>
+      <c r="P12">
+        <v>12.73543733365117</v>
+      </c>
+      <c r="Q12">
+        <v>13.15652127273375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.342051621278361</v>
+        <v>6.832896467340515</v>
       </c>
       <c r="D13">
-        <v>5.799749065628361</v>
+        <v>6.05487056513402</v>
       </c>
       <c r="E13">
-        <v>11.80584782568661</v>
+        <v>8.071969250036741</v>
       </c>
       <c r="F13">
-        <v>46.03278213195719</v>
+        <v>17.30917604480783</v>
       </c>
       <c r="G13">
-        <v>1.971968434887299</v>
+        <v>20.45298723185788</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.728915355475898</v>
       </c>
       <c r="I13">
-        <v>31.31878364633924</v>
+        <v>4.49109095945143</v>
       </c>
       <c r="J13">
-        <v>7.403659774662286</v>
+        <v>7.753603759542465</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.59708285544692</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>21.43591576477587</v>
       </c>
       <c r="N13">
-        <v>31.67947945617571</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>33.73915815177801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.33035244285066</v>
+      </c>
+      <c r="P13">
+        <v>12.93755980094582</v>
+      </c>
+      <c r="Q13">
+        <v>12.68783804225178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.334286366102766</v>
+        <v>6.850132733644728</v>
       </c>
       <c r="D14">
-        <v>5.780764180956894</v>
+        <v>6.099343027386698</v>
       </c>
       <c r="E14">
-        <v>11.72447973636904</v>
+        <v>8.103745551843522</v>
       </c>
       <c r="F14">
-        <v>45.59496492938494</v>
+        <v>16.80285199213075</v>
       </c>
       <c r="G14">
-        <v>1.973968323306364</v>
+        <v>19.5884336688801</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.63360234934386</v>
       </c>
       <c r="I14">
-        <v>31.0118157079873</v>
+        <v>4.454184368383545</v>
       </c>
       <c r="J14">
-        <v>7.363770032505829</v>
+        <v>7.623267884533217</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.27224383586072</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>21.30191417834806</v>
       </c>
       <c r="N14">
-        <v>31.43851144188478</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>33.40935064804827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.84707239091749</v>
+      </c>
+      <c r="P14">
+        <v>13.07548965875893</v>
+      </c>
+      <c r="Q14">
+        <v>12.33608970620782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.329515424978577</v>
+        <v>6.822269544502549</v>
       </c>
       <c r="D15">
-        <v>5.769197345268497</v>
+        <v>6.096283132810322</v>
       </c>
       <c r="E15">
-        <v>11.67464525258342</v>
+        <v>8.265659743477002</v>
       </c>
       <c r="F15">
-        <v>45.32588245127354</v>
+        <v>16.64245979677149</v>
       </c>
       <c r="G15">
-        <v>1.975193884723185</v>
+        <v>19.32703609382864</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.840978584967631</v>
       </c>
       <c r="I15">
-        <v>30.82306245286811</v>
+        <v>4.435480848841608</v>
       </c>
       <c r="J15">
-        <v>7.339397942368139</v>
+        <v>7.590264640324181</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.17147431004559</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>21.20268850607937</v>
       </c>
       <c r="N15">
-        <v>31.28998244549474</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>33.20657797743502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.44904265318256</v>
+      </c>
+      <c r="P15">
+        <v>13.10582951085733</v>
+      </c>
+      <c r="Q15">
+        <v>12.23803007027425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.301954537432882</v>
+        <v>6.621198018697622</v>
       </c>
       <c r="D16">
-        <v>5.703849007145633</v>
+        <v>5.943299340730276</v>
       </c>
       <c r="E16">
-        <v>11.38914234169622</v>
+        <v>8.193385500640076</v>
       </c>
       <c r="F16">
-        <v>43.76970468899918</v>
+        <v>16.37988736297982</v>
       </c>
       <c r="G16">
-        <v>1.98222899029108</v>
+        <v>19.00539114721257</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.576840864178857</v>
       </c>
       <c r="I16">
-        <v>29.73002196617416</v>
+        <v>4.33596574787657</v>
       </c>
       <c r="J16">
-        <v>7.200660062232337</v>
+        <v>7.602561969810913</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.05638908169153</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>20.57905260723849</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>32.03273227595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.19442063983556</v>
+      </c>
+      <c r="P16">
+        <v>13.050178419007</v>
+      </c>
+      <c r="Q16">
+        <v>12.18481293753591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.284851968645816</v>
+        <v>6.451892181235332</v>
       </c>
       <c r="D17">
-        <v>5.664582357470889</v>
+        <v>5.799184770350403</v>
       </c>
       <c r="E17">
-        <v>11.21406063245647</v>
+        <v>7.923176396161318</v>
       </c>
       <c r="F17">
-        <v>42.84902544042065</v>
+        <v>16.45702409909663</v>
       </c>
       <c r="G17">
-        <v>1.986558691221196</v>
+        <v>19.23581890558583</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.84526353251581</v>
       </c>
       <c r="I17">
-        <v>29.04908875886875</v>
+        <v>4.278817541603147</v>
       </c>
       <c r="J17">
-        <v>7.116365032407766</v>
+        <v>7.681995548100446</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.14424398998351</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>20.16401369360595</v>
       </c>
       <c r="N17">
-        <v>29.88120505119275</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>31.30180017077591</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.82296277158207</v>
+      </c>
+      <c r="P17">
+        <v>12.93584247702209</v>
+      </c>
+      <c r="Q17">
+        <v>12.33471898703816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.274944241354788</v>
+        <v>6.326577047022113</v>
       </c>
       <c r="D18">
-        <v>5.64229457968856</v>
+        <v>5.644999718665451</v>
       </c>
       <c r="E18">
-        <v>11.11338304320716</v>
+        <v>8.513054732011625</v>
       </c>
       <c r="F18">
-        <v>42.32295025858192</v>
+        <v>16.84607036649984</v>
       </c>
       <c r="G18">
-        <v>1.989055362198443</v>
+        <v>19.98882442630056</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.681021948924407</v>
       </c>
       <c r="I18">
-        <v>28.65352717866585</v>
+        <v>4.252549704001091</v>
       </c>
       <c r="J18">
-        <v>7.068176911732412</v>
+        <v>7.830493389416141</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.43231670778913</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.89711948303041</v>
       </c>
       <c r="N18">
-        <v>29.56404287680427</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>30.87731957989937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.29598046117561</v>
+      </c>
+      <c r="P18">
+        <v>12.76094621748927</v>
+      </c>
+      <c r="Q18">
+        <v>12.68329955782013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.271577581793506</v>
+        <v>6.186145432324011</v>
       </c>
       <c r="D19">
-        <v>5.634798960456338</v>
+        <v>5.503939375837474</v>
       </c>
       <c r="E19">
-        <v>11.07929993088992</v>
+        <v>10.8921604856029</v>
       </c>
       <c r="F19">
-        <v>42.14420855137269</v>
+        <v>17.41343262355543</v>
       </c>
       <c r="G19">
-        <v>1.989901893440749</v>
+        <v>21.02917949106734</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.444489290519617</v>
       </c>
       <c r="I19">
-        <v>28.51891794755157</v>
+        <v>4.258945897239117</v>
       </c>
       <c r="J19">
-        <v>7.051911850394466</v>
+        <v>8.01234415003089</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.81404229995415</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>19.76140779352828</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>30.73289094225652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.31643188401737</v>
+      </c>
+      <c r="P19">
+        <v>12.56489922125425</v>
+      </c>
+      <c r="Q19">
+        <v>13.13594859401771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.286679911506582</v>
+        <v>6.133488014013555</v>
       </c>
       <c r="D20">
-        <v>5.668731479060868</v>
+        <v>5.396183234703477</v>
       </c>
       <c r="E20">
-        <v>11.23269587854008</v>
+        <v>16.16719080618076</v>
       </c>
       <c r="F20">
-        <v>42.94609572878228</v>
+        <v>18.50342504813649</v>
       </c>
       <c r="G20">
-        <v>1.986097157819462</v>
+        <v>22.91085182333862</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.7395794350317</v>
       </c>
       <c r="I20">
-        <v>29.12197769233369</v>
+        <v>4.350402784530898</v>
       </c>
       <c r="J20">
-        <v>7.125307664709779</v>
+        <v>8.299164053162777</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.51307313431127</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>20.02683217039906</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>31.38002815973755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.68890153518225</v>
+      </c>
+      <c r="P20">
+        <v>12.29538674345983</v>
+      </c>
+      <c r="Q20">
+        <v>13.90507783079165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.336570234971571</v>
+        <v>6.434707181683535</v>
       </c>
       <c r="D21">
-        <v>5.786327557868637</v>
+        <v>5.618750471077124</v>
       </c>
       <c r="E21">
-        <v>11.7483782682494</v>
+        <v>17.33929760244977</v>
       </c>
       <c r="F21">
-        <v>45.72375073237698</v>
+        <v>19.25716541900739</v>
       </c>
       <c r="G21">
-        <v>1.973380796121567</v>
+        <v>23.98151021236117</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.989341504880931</v>
       </c>
       <c r="I21">
-        <v>31.1021304535657</v>
+        <v>4.541810812258238</v>
       </c>
       <c r="J21">
-        <v>7.375473755559343</v>
+        <v>8.3821584901925</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.92132218146915</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>21.13352893446203</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>33.50638004566014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>21.00870308908263</v>
+      </c>
+      <c r="P21">
+        <v>12.26269562148759</v>
+      </c>
+      <c r="Q21">
+        <v>14.2480831898217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.368529684597108</v>
+        <v>6.66620283223191</v>
       </c>
       <c r="D22">
-        <v>5.865942760512248</v>
+        <v>5.763226138679913</v>
       </c>
       <c r="E22">
-        <v>12.08566518722285</v>
+        <v>17.82390660763571</v>
       </c>
       <c r="F22">
-        <v>47.52469856114858</v>
+        <v>19.72571543527072</v>
       </c>
       <c r="G22">
-        <v>1.965098924695827</v>
+        <v>24.63714934491914</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.137896810813229</v>
       </c>
       <c r="I22">
-        <v>32.36350774477695</v>
+        <v>4.661378816738558</v>
       </c>
       <c r="J22">
-        <v>7.541713861505139</v>
+        <v>8.43336595597601</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.18645979971168</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21.83642587183662</v>
       </c>
       <c r="N22">
-        <v>32.49403281050592</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>34.8619737284189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.70127060450357</v>
+      </c>
+      <c r="P22">
+        <v>12.25268643894361</v>
+      </c>
+      <c r="Q22">
+        <v>14.4603276219476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.351532206370308</v>
+        <v>6.581325279255368</v>
       </c>
       <c r="D23">
-        <v>5.823192075728977</v>
+        <v>5.682433845205577</v>
       </c>
       <c r="E23">
-        <v>11.90561855721524</v>
+        <v>17.56470983708582</v>
       </c>
       <c r="F23">
-        <v>46.56710844206059</v>
+        <v>19.49671499640978</v>
       </c>
       <c r="G23">
-        <v>1.969517894033449</v>
+        <v>24.32510682753792</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.059447615878556</v>
       </c>
       <c r="I23">
-        <v>31.6931763655512</v>
+        <v>4.596653304201745</v>
       </c>
       <c r="J23">
-        <v>7.452730297489615</v>
+        <v>8.412390112654595</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.07123536102891</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>21.4717468748282</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>34.14147291183362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.33778675407521</v>
+      </c>
+      <c r="P23">
+        <v>12.25429360173945</v>
+      </c>
+      <c r="Q23">
+        <v>14.36321024328674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.285853732679654</v>
+        <v>6.17928869092422</v>
       </c>
       <c r="D24">
-        <v>5.666854767950878</v>
+        <v>5.372402163054022</v>
       </c>
       <c r="E24">
-        <v>11.22427094829931</v>
+        <v>16.55290312496797</v>
       </c>
       <c r="F24">
-        <v>42.90222220172906</v>
+        <v>18.58999198357483</v>
       </c>
       <c r="G24">
-        <v>1.986305793517528</v>
+        <v>23.07182610347235</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.755005444119719</v>
       </c>
       <c r="I24">
-        <v>29.08903734727937</v>
+        <v>4.34802595789777</v>
       </c>
       <c r="J24">
-        <v>7.12126384740976</v>
+        <v>8.328509511693364</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.59220601941206</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>20.01506105290664</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>31.34467457050668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.89677070872467</v>
+      </c>
+      <c r="P24">
+        <v>12.27154374747964</v>
+      </c>
+      <c r="Q24">
+        <v>13.97690226179347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.212316597920656</v>
+        <v>5.70306393407615</v>
       </c>
       <c r="D25">
-        <v>5.509546535754044</v>
+        <v>5.015466333333214</v>
       </c>
       <c r="E25">
-        <v>10.49046269125494</v>
+        <v>15.39141689410012</v>
       </c>
       <c r="F25">
-        <v>38.99815140848821</v>
+        <v>17.60348040274187</v>
       </c>
       <c r="G25">
-        <v>2.004668816523516</v>
+        <v>21.70085531390292</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.412283762136587</v>
       </c>
       <c r="I25">
-        <v>26.27760987000834</v>
+        <v>4.068915025772651</v>
       </c>
       <c r="J25">
-        <v>6.775068460321959</v>
+        <v>8.251226059324205</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.07722126072654</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>18.30848715878617</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>28.41497854770489</v>
+        <v>18.21747741206017</v>
+      </c>
+      <c r="P25">
+        <v>12.30096356857299</v>
+      </c>
+      <c r="Q25">
+        <v>13.57871784765612</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.425136041669416</v>
+        <v>4.400882554644575</v>
       </c>
       <c r="D2">
-        <v>4.722283392189565</v>
+        <v>4.851725255660537</v>
       </c>
       <c r="E2">
-        <v>14.47212304948464</v>
+        <v>14.47814852624132</v>
       </c>
       <c r="F2">
-        <v>16.93150888089318</v>
+        <v>16.46168953550898</v>
       </c>
       <c r="G2">
-        <v>20.78501230289816</v>
+        <v>19.23279683905434</v>
       </c>
       <c r="H2">
-        <v>2.148475664232687</v>
+        <v>2.115245892934333</v>
       </c>
       <c r="I2">
-        <v>3.852194537579021</v>
+        <v>3.77807605262017</v>
       </c>
       <c r="J2">
-        <v>8.221618346004679</v>
+        <v>8.699024413032856</v>
       </c>
       <c r="K2">
-        <v>13.77032222193749</v>
+        <v>13.18749470330981</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.24097676604358</v>
       </c>
       <c r="M2">
-        <v>16.9581866978225</v>
+        <v>7.565630061582791</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.88495219772596</v>
+        <v>16.71752936901573</v>
       </c>
       <c r="P2">
-        <v>12.32375735445211</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.34479637810351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.78604504672838</v>
+      </c>
+      <c r="R2">
+        <v>12.41899525971374</v>
+      </c>
+      <c r="S2">
+        <v>13.02201844187931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.155555170847938</v>
+        <v>4.238250660623494</v>
       </c>
       <c r="D3">
-        <v>4.518696228392616</v>
+        <v>4.627680046340121</v>
       </c>
       <c r="E3">
-        <v>13.81731187686929</v>
+        <v>13.82466525999945</v>
       </c>
       <c r="F3">
-        <v>16.44565817555375</v>
+        <v>16.04895415308617</v>
       </c>
       <c r="G3">
-        <v>20.10439827146615</v>
+        <v>18.66757047780854</v>
       </c>
       <c r="H3">
-        <v>1.960511872418323</v>
+        <v>1.933875845851665</v>
       </c>
       <c r="I3">
-        <v>3.699153351845223</v>
+        <v>3.645624539440205</v>
       </c>
       <c r="J3">
-        <v>8.198394748163027</v>
+        <v>8.670609607337234</v>
       </c>
       <c r="K3">
-        <v>13.52639139250902</v>
+        <v>13.02513267477074</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.30100440890227</v>
       </c>
       <c r="M3">
-        <v>15.95940236950418</v>
+        <v>7.190614627552234</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.91130121772851</v>
+        <v>15.75328537668914</v>
       </c>
       <c r="P3">
-        <v>12.3489325574568</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.17232917579408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.82625058004503</v>
+      </c>
+      <c r="R3">
+        <v>12.42385901027907</v>
+      </c>
+      <c r="S3">
+        <v>12.9018420856378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.977311779968363</v>
+        <v>4.129058126625663</v>
       </c>
       <c r="D4">
-        <v>4.388528216026717</v>
+        <v>4.484357639130346</v>
       </c>
       <c r="E4">
-        <v>13.39875282015786</v>
+        <v>13.40730760115098</v>
       </c>
       <c r="F4">
-        <v>16.14786696803146</v>
+        <v>15.79619470892384</v>
       </c>
       <c r="G4">
-        <v>19.68469857039791</v>
+        <v>18.32167931749439</v>
       </c>
       <c r="H4">
-        <v>1.840858096194849</v>
+        <v>1.818375301849387</v>
       </c>
       <c r="I4">
-        <v>3.601787344596967</v>
+        <v>3.56142695349785</v>
       </c>
       <c r="J4">
-        <v>8.186846982520853</v>
+        <v>8.654042912402941</v>
       </c>
       <c r="K4">
-        <v>13.37713019583212</v>
+        <v>12.92532276784915</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.33639899852821</v>
       </c>
       <c r="M4">
-        <v>15.31072147671979</v>
+        <v>6.975729683821339</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.28176442750771</v>
+        <v>15.12705116961931</v>
       </c>
       <c r="P4">
-        <v>12.36697465299112</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.07078219193711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.20556446795448</v>
+      </c>
+      <c r="R4">
+        <v>12.42964552766059</v>
+      </c>
+      <c r="S4">
+        <v>12.83166601377078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.888966005010295</v>
+        <v>4.070910970621304</v>
       </c>
       <c r="D5">
-        <v>4.335518558304665</v>
+        <v>4.42584792420195</v>
       </c>
       <c r="E5">
-        <v>13.22478912641799</v>
+        <v>13.23396354041968</v>
       </c>
       <c r="F5">
-        <v>16.02053247858468</v>
+        <v>15.68736004017433</v>
       </c>
       <c r="G5">
-        <v>19.50191141162242</v>
+        <v>18.16968773543955</v>
       </c>
       <c r="H5">
-        <v>1.790852582320455</v>
+        <v>1.770100649202985</v>
       </c>
       <c r="I5">
-        <v>3.561227780917307</v>
+        <v>3.526611823595504</v>
       </c>
       <c r="J5">
-        <v>8.181061846438755</v>
+        <v>8.645844498092547</v>
       </c>
       <c r="K5">
-        <v>13.30905105606681</v>
+        <v>12.87759064528274</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.34482623782681</v>
       </c>
       <c r="M5">
-        <v>15.03494486097264</v>
+        <v>6.887420096088433</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.01617409142814</v>
+        <v>14.86078614472814</v>
       </c>
       <c r="P5">
-        <v>12.37567761570361</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.02591311580648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.94368338767741</v>
+      </c>
+      <c r="R5">
+        <v>12.43343204702104</v>
+      </c>
+      <c r="S5">
+        <v>12.79955754565082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.858776123908418</v>
+        <v>4.047356042088197</v>
       </c>
       <c r="D6">
-        <v>4.328232514952385</v>
+        <v>4.417643710280057</v>
       </c>
       <c r="E6">
-        <v>13.19644058018509</v>
+        <v>13.20575237160408</v>
       </c>
       <c r="F6">
-        <v>15.99172947190264</v>
+        <v>15.66182734712682</v>
       </c>
       <c r="G6">
-        <v>19.45743466608909</v>
+        <v>18.1304331497017</v>
       </c>
       <c r="H6">
-        <v>1.782281151182581</v>
+        <v>1.761831805259821</v>
       </c>
       <c r="I6">
-        <v>3.554576758634225</v>
+        <v>3.521255719500432</v>
       </c>
       <c r="J6">
-        <v>8.178004732466048</v>
+        <v>8.642459003730755</v>
       </c>
       <c r="K6">
-        <v>13.28865934405372</v>
+        <v>12.86104666027789</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.33933725790684</v>
       </c>
       <c r="M6">
-        <v>14.98543638438989</v>
+        <v>6.866581552732599</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.97014100601716</v>
+        <v>14.81293751173475</v>
       </c>
       <c r="P6">
-        <v>12.37803828132427</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.01291503611624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.89829237508835</v>
+      </c>
+      <c r="R6">
+        <v>12.43500725058977</v>
+      </c>
+      <c r="S6">
+        <v>12.78888775105951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.934928019441958</v>
+        <v>4.09468552916216</v>
       </c>
       <c r="D7">
-        <v>4.392111565108105</v>
+        <v>4.490499382812244</v>
       </c>
       <c r="E7">
-        <v>13.39852475979633</v>
+        <v>13.40847363988673</v>
       </c>
       <c r="F7">
-        <v>16.1253563424633</v>
+        <v>15.76220532233023</v>
       </c>
       <c r="G7">
-        <v>19.64406881366133</v>
+        <v>18.37781909910272</v>
       </c>
       <c r="H7">
-        <v>1.839642136363169</v>
+        <v>1.816904920049314</v>
       </c>
       <c r="I7">
-        <v>3.601386399142609</v>
+        <v>3.561464681662002</v>
       </c>
       <c r="J7">
-        <v>8.180940688452472</v>
+        <v>8.611109824740709</v>
       </c>
       <c r="K7">
-        <v>13.35147995703454</v>
+        <v>12.89392639015335</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.31242970244224</v>
       </c>
       <c r="M7">
-        <v>15.29851418382089</v>
+        <v>6.95082943854059</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.27430502447997</v>
+        <v>15.11004535037415</v>
       </c>
       <c r="P7">
-        <v>12.36952962348095</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.05489895929627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.19586957228699</v>
+      </c>
+      <c r="R7">
+        <v>12.43375324849594</v>
+      </c>
+      <c r="S7">
+        <v>12.80769878412097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.28339460960148</v>
+        <v>4.311420169348259</v>
       </c>
       <c r="D8">
-        <v>4.658616644035011</v>
+        <v>4.789459441264373</v>
       </c>
       <c r="E8">
-        <v>14.25251479515851</v>
+        <v>14.26329149026501</v>
       </c>
       <c r="F8">
-        <v>16.73737523087138</v>
+        <v>16.25390956721863</v>
       </c>
       <c r="G8">
-        <v>20.5022518614539</v>
+        <v>19.29824469459923</v>
       </c>
       <c r="H8">
-        <v>2.083846621864954</v>
+        <v>2.05194486560413</v>
       </c>
       <c r="I8">
-        <v>3.800097653434046</v>
+        <v>3.732513596185986</v>
       </c>
       <c r="J8">
-        <v>8.205378536339353</v>
+        <v>8.560263745625573</v>
       </c>
       <c r="K8">
-        <v>13.65406193172837</v>
+        <v>13.07737890194963</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.22178778146588</v>
       </c>
       <c r="M8">
-        <v>16.61067265780619</v>
+        <v>7.38906293816814</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.55106138970229</v>
+        <v>16.36613619847428</v>
       </c>
       <c r="P8">
-        <v>12.33530510211181</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.26453569584557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.4496913843264</v>
+      </c>
+      <c r="R8">
+        <v>12.42901578305129</v>
+      </c>
+      <c r="S8">
+        <v>12.93171952260492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.932305397721151</v>
+        <v>4.710653031847066</v>
       </c>
       <c r="D9">
-        <v>5.131821022251696</v>
+        <v>5.311659922528185</v>
       </c>
       <c r="E9">
-        <v>15.78848375087552</v>
+        <v>15.79850308028892</v>
       </c>
       <c r="F9">
-        <v>17.97036286447557</v>
+        <v>17.29854775294748</v>
       </c>
       <c r="G9">
-        <v>22.22601639307124</v>
+        <v>20.81175124210833</v>
       </c>
       <c r="H9">
-        <v>2.530579214456645</v>
+        <v>2.482557444754408</v>
       </c>
       <c r="I9">
-        <v>4.163684812012485</v>
+        <v>4.04637691597763</v>
       </c>
       <c r="J9">
-        <v>8.285806846778833</v>
+        <v>8.610513438181721</v>
       </c>
       <c r="K9">
-        <v>14.29209374325096</v>
+        <v>13.50297332368717</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.08318681710963</v>
       </c>
       <c r="M9">
-        <v>18.91418589356493</v>
+        <v>8.398945806717879</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.80560709964547</v>
+        <v>18.58781596543387</v>
       </c>
       <c r="P9">
-        <v>12.28467273099085</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.73644704132416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.67049377852501</v>
+      </c>
+      <c r="R9">
+        <v>12.43209604645014</v>
+      </c>
+      <c r="S9">
+        <v>13.26224039029964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.34074672415943</v>
+        <v>4.977833813421887</v>
       </c>
       <c r="D10">
-        <v>5.471031528175816</v>
+        <v>5.695765475115156</v>
       </c>
       <c r="E10">
-        <v>16.32280163811696</v>
+        <v>16.33598799655113</v>
       </c>
       <c r="F10">
-        <v>18.77456945785772</v>
+        <v>17.91211738655254</v>
       </c>
       <c r="G10">
-        <v>23.30124790173869</v>
+        <v>22.24076465921497</v>
       </c>
       <c r="H10">
-        <v>2.817367172576823</v>
+        <v>2.75689407247108</v>
       </c>
       <c r="I10">
-        <v>4.412193241685429</v>
+        <v>4.259521741623715</v>
       </c>
       <c r="J10">
-        <v>8.330748227457255</v>
+        <v>8.42584589741819</v>
       </c>
       <c r="K10">
-        <v>14.69124452684342</v>
+        <v>13.71576803991079</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.91019133541062</v>
       </c>
       <c r="M10">
-        <v>20.43514469795802</v>
+        <v>9.08101021678014</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.02243175106253</v>
+        <v>20.03317148219543</v>
       </c>
       <c r="P10">
-        <v>12.28722109616709</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.03132768844964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.85479032217012</v>
+      </c>
+      <c r="R10">
+        <v>12.48640121480301</v>
+      </c>
+      <c r="S10">
+        <v>13.40916689127428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.571687442374325</v>
+        <v>5.226632167882101</v>
       </c>
       <c r="D11">
-        <v>5.769459042316873</v>
+        <v>6.030409368194465</v>
       </c>
       <c r="E11">
-        <v>12.44245892249846</v>
+        <v>12.41364050368315</v>
       </c>
       <c r="F11">
-        <v>18.39664308691271</v>
+        <v>17.39217367631444</v>
       </c>
       <c r="G11">
-        <v>22.45276093870013</v>
+        <v>22.44808198604761</v>
       </c>
       <c r="H11">
-        <v>3.427152853461229</v>
+        <v>3.374707829943131</v>
       </c>
       <c r="I11">
-        <v>4.494742230331159</v>
+        <v>4.328710948661007</v>
       </c>
       <c r="J11">
-        <v>8.120776277327399</v>
+        <v>7.852666946314669</v>
       </c>
       <c r="K11">
-        <v>14.35104051753749</v>
+        <v>13.29785124725258</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.50016854028338</v>
       </c>
       <c r="M11">
-        <v>21.13767681732746</v>
+        <v>8.943645587902328</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.15579606638461</v>
+        <v>20.67906729610825</v>
       </c>
       <c r="P11">
-        <v>12.52417973355563</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.58490423052926</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.96687752968195</v>
+      </c>
+      <c r="R11">
+        <v>12.77378601533884</v>
+      </c>
+      <c r="S11">
+        <v>12.8655354728349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.74328917200766</v>
+        <v>5.430872084764818</v>
       </c>
       <c r="D12">
-        <v>5.948109910837358</v>
+        <v>6.222713035937638</v>
       </c>
       <c r="E12">
-        <v>9.639890061042443</v>
+        <v>9.533770808005324</v>
       </c>
       <c r="F12">
-        <v>17.92423471366455</v>
+        <v>16.87793067915223</v>
       </c>
       <c r="G12">
-        <v>21.54244220701319</v>
+        <v>22.06169017812307</v>
       </c>
       <c r="H12">
-        <v>4.505584025872536</v>
+        <v>4.466217463426834</v>
       </c>
       <c r="I12">
-        <v>4.51550391701447</v>
+        <v>4.344865440082404</v>
       </c>
       <c r="J12">
-        <v>7.937452497668682</v>
+        <v>7.558461965121105</v>
       </c>
       <c r="K12">
-        <v>14.00666063107694</v>
+        <v>12.95124107429795</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.23036150416173</v>
       </c>
       <c r="M12">
-        <v>21.43427877578081</v>
+        <v>8.725134898007067</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.31733687114734</v>
+        <v>20.95690804275783</v>
       </c>
       <c r="P12">
-        <v>12.73543733365117</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.15652127273375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.12408087413494</v>
+      </c>
+      <c r="R12">
+        <v>13.01020703577629</v>
+      </c>
+      <c r="S12">
+        <v>12.41786373303289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.832896467340515</v>
+        <v>5.56655283489725</v>
       </c>
       <c r="D13">
-        <v>6.05487056513402</v>
+        <v>6.320543104984798</v>
       </c>
       <c r="E13">
-        <v>8.071969250036741</v>
+        <v>7.86236470004533</v>
       </c>
       <c r="F13">
-        <v>17.30917604480783</v>
+        <v>16.32428850845273</v>
       </c>
       <c r="G13">
-        <v>20.45298723185788</v>
+        <v>20.90859217671684</v>
       </c>
       <c r="H13">
-        <v>5.728915355475898</v>
+        <v>5.700036184744958</v>
       </c>
       <c r="I13">
-        <v>4.49109095945143</v>
+        <v>4.324376360272315</v>
       </c>
       <c r="J13">
-        <v>7.753603759542465</v>
+        <v>7.478796684255632</v>
       </c>
       <c r="K13">
-        <v>13.59708285544692</v>
+        <v>12.61693408624136</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.03194707464329</v>
       </c>
       <c r="M13">
-        <v>21.43591576477587</v>
+        <v>8.411647787995269</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.33035244285066</v>
+        <v>20.97763018728889</v>
       </c>
       <c r="P13">
-        <v>12.93755980094582</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.68783804225178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.14989487967076</v>
+      </c>
+      <c r="R13">
+        <v>13.21153314874338</v>
+      </c>
+      <c r="S13">
+        <v>12.01036118359688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.850132733644728</v>
+        <v>5.624168640201963</v>
       </c>
       <c r="D14">
-        <v>6.099343027386698</v>
+        <v>6.348425372272044</v>
       </c>
       <c r="E14">
-        <v>8.103745551843522</v>
+        <v>7.846651406490176</v>
       </c>
       <c r="F14">
-        <v>16.80285199213075</v>
+        <v>15.9071377852418</v>
       </c>
       <c r="G14">
-        <v>19.5884336688801</v>
+        <v>19.74184640193212</v>
       </c>
       <c r="H14">
-        <v>6.63360234934386</v>
+        <v>6.610452723691599</v>
       </c>
       <c r="I14">
-        <v>4.454184368383545</v>
+        <v>4.294309149899247</v>
       </c>
       <c r="J14">
-        <v>7.623267884533217</v>
+        <v>7.504199780017943</v>
       </c>
       <c r="K14">
-        <v>13.27224383586072</v>
+        <v>12.37946256746483</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.91774405688528</v>
       </c>
       <c r="M14">
-        <v>21.30191417834806</v>
+        <v>8.140760577210109</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.84707239091749</v>
+        <v>20.87403867032701</v>
       </c>
       <c r="P14">
-        <v>13.07548965875893</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.33608970620782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.68329970284305</v>
+      </c>
+      <c r="R14">
+        <v>13.33643923923314</v>
+      </c>
+      <c r="S14">
+        <v>11.73642785938284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.822269544502549</v>
+        <v>5.610390915808643</v>
       </c>
       <c r="D15">
-        <v>6.096283132810322</v>
+        <v>6.336802901871081</v>
       </c>
       <c r="E15">
-        <v>8.265659743477002</v>
+        <v>8.00686123909262</v>
       </c>
       <c r="F15">
-        <v>16.64245979677149</v>
+        <v>15.78858589288214</v>
       </c>
       <c r="G15">
-        <v>19.32703609382864</v>
+        <v>19.29736373479612</v>
       </c>
       <c r="H15">
-        <v>6.840978584967631</v>
+        <v>6.81929428227189</v>
       </c>
       <c r="I15">
-        <v>4.435480848841608</v>
+        <v>4.279552493465645</v>
       </c>
       <c r="J15">
-        <v>7.590264640324181</v>
+        <v>7.545352677876431</v>
       </c>
       <c r="K15">
-        <v>13.17147431004559</v>
+        <v>12.31531633936913</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.89793736222839</v>
       </c>
       <c r="M15">
-        <v>21.20268850607937</v>
+        <v>8.04677097224411</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.44904265318256</v>
+        <v>20.78977512270383</v>
       </c>
       <c r="P15">
-        <v>13.10582951085733</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.23803007027425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.29259356684697</v>
+      </c>
+      <c r="R15">
+        <v>13.35829630675383</v>
+      </c>
+      <c r="S15">
+        <v>11.67233383759173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.621198018697622</v>
+        <v>5.439720294550386</v>
       </c>
       <c r="D16">
-        <v>5.943299340730276</v>
+        <v>6.145359289737814</v>
       </c>
       <c r="E16">
-        <v>8.193385500640076</v>
+        <v>7.966187530381112</v>
       </c>
       <c r="F16">
-        <v>16.37988736297982</v>
+        <v>15.69457212867229</v>
       </c>
       <c r="G16">
-        <v>19.00539114721257</v>
+        <v>18.08385340928515</v>
       </c>
       <c r="H16">
-        <v>6.576840864178857</v>
+        <v>6.557763686377152</v>
       </c>
       <c r="I16">
-        <v>4.33596574787657</v>
+        <v>4.1980052492087</v>
       </c>
       <c r="J16">
-        <v>7.602561969810913</v>
+        <v>7.873002270427714</v>
       </c>
       <c r="K16">
-        <v>13.05638908169153</v>
+        <v>12.32633916109268</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.01941757681136</v>
       </c>
       <c r="M16">
-        <v>20.57905260723849</v>
+        <v>7.84658703743151</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.19442063983556</v>
+        <v>20.23063835763125</v>
       </c>
       <c r="P16">
-        <v>13.050178419007</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.18481293753591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.06502115788041</v>
+      </c>
+      <c r="R16">
+        <v>13.25801427665188</v>
+      </c>
+      <c r="S16">
+        <v>11.74288528191563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.451892181235332</v>
+        <v>5.276404229732433</v>
       </c>
       <c r="D17">
-        <v>5.799184770350403</v>
+        <v>5.984522489832236</v>
       </c>
       <c r="E17">
-        <v>7.923176396161318</v>
+        <v>7.729068153829314</v>
       </c>
       <c r="F17">
-        <v>16.45702409909663</v>
+        <v>15.83605625203256</v>
       </c>
       <c r="G17">
-        <v>19.23581890558583</v>
+        <v>17.92391282415687</v>
       </c>
       <c r="H17">
-        <v>5.84526353251581</v>
+        <v>5.825588497284946</v>
       </c>
       <c r="I17">
-        <v>4.278817541603147</v>
+        <v>4.150618575379993</v>
       </c>
       <c r="J17">
-        <v>7.681995548100446</v>
+        <v>8.084808789200027</v>
       </c>
       <c r="K17">
-        <v>13.14424398998351</v>
+        <v>12.45401501852262</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.17223048155742</v>
       </c>
       <c r="M17">
-        <v>20.16401369360595</v>
+        <v>7.831913748198059</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.82296277158207</v>
+        <v>19.84261799436672</v>
       </c>
       <c r="P17">
-        <v>12.93584247702209</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.33471898703816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.70278515389599</v>
+      </c>
+      <c r="R17">
+        <v>13.12147229646049</v>
+      </c>
+      <c r="S17">
+        <v>11.93440733529509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.326577047022113</v>
+        <v>5.128072240166288</v>
       </c>
       <c r="D18">
-        <v>5.644999718665451</v>
+        <v>5.825525925997333</v>
       </c>
       <c r="E18">
-        <v>8.513054732011625</v>
+        <v>8.380472846823809</v>
       </c>
       <c r="F18">
-        <v>16.84607036649984</v>
+        <v>16.23052111843048</v>
       </c>
       <c r="G18">
-        <v>19.98882442630056</v>
+        <v>18.48640106792447</v>
       </c>
       <c r="H18">
-        <v>4.681021948924407</v>
+        <v>4.656752024885265</v>
       </c>
       <c r="I18">
-        <v>4.252549704001091</v>
+        <v>4.127468807475012</v>
       </c>
       <c r="J18">
-        <v>7.830493389416141</v>
+        <v>8.274583206068312</v>
       </c>
       <c r="K18">
-        <v>13.43231670778913</v>
+        <v>12.72663436961192</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.39163846981558</v>
       </c>
       <c r="M18">
-        <v>19.89711948303041</v>
+        <v>7.99924191473136</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.29598046117561</v>
+        <v>19.58138787715231</v>
       </c>
       <c r="P18">
-        <v>12.76094621748927</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.68329955782013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.17474573646286</v>
+      </c>
+      <c r="R18">
+        <v>12.93511129475499</v>
+      </c>
+      <c r="S18">
+        <v>12.27735711949323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.186145432324011</v>
+        <v>4.950853073480276</v>
       </c>
       <c r="D19">
-        <v>5.503939375837474</v>
+        <v>5.687170852602961</v>
       </c>
       <c r="E19">
-        <v>10.8921604856029</v>
+        <v>10.83251294569417</v>
       </c>
       <c r="F19">
-        <v>17.41343262355543</v>
+        <v>16.7671621541046</v>
       </c>
       <c r="G19">
-        <v>21.02917949106734</v>
+        <v>19.43302540489249</v>
       </c>
       <c r="H19">
-        <v>3.444489290519617</v>
+        <v>3.409399622014673</v>
       </c>
       <c r="I19">
-        <v>4.258945897239117</v>
+        <v>4.133516074620758</v>
       </c>
       <c r="J19">
-        <v>8.01234415003089</v>
+        <v>8.448028732908632</v>
       </c>
       <c r="K19">
-        <v>13.81404229995415</v>
+        <v>13.05937439080573</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.62579186766212</v>
       </c>
       <c r="M19">
-        <v>19.76140779352828</v>
+        <v>8.265919726479723</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.31643188401737</v>
+        <v>19.43759700400733</v>
       </c>
       <c r="P19">
-        <v>12.56489922125425</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.13594859401771</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.1879896889725</v>
+      </c>
+      <c r="R19">
+        <v>12.73402090054638</v>
+      </c>
+      <c r="S19">
+        <v>12.69630552116567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.133488014013555</v>
+        <v>4.812821890008773</v>
       </c>
       <c r="D20">
-        <v>5.396183234703477</v>
+        <v>5.601385434549647</v>
       </c>
       <c r="E20">
-        <v>16.16719080618076</v>
+        <v>16.17535382260804</v>
       </c>
       <c r="F20">
-        <v>18.50342504813649</v>
+        <v>17.73115796374825</v>
       </c>
       <c r="G20">
-        <v>22.91085182333862</v>
+        <v>21.45861970386633</v>
       </c>
       <c r="H20">
-        <v>2.7395794350317</v>
+        <v>2.683349749844976</v>
       </c>
       <c r="I20">
-        <v>4.350402784530898</v>
+        <v>4.211275516093567</v>
       </c>
       <c r="J20">
-        <v>8.299164053162777</v>
+        <v>8.581593823822315</v>
       </c>
       <c r="K20">
-        <v>14.51307313431127</v>
+        <v>13.61527510575466</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.92567551567256</v>
       </c>
       <c r="M20">
-        <v>20.02683217039906</v>
+        <v>8.862957404811869</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.68890153518225</v>
+        <v>19.65908138888068</v>
       </c>
       <c r="P20">
-        <v>12.29538674345983</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.90507783079165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.53646245496212</v>
+      </c>
+      <c r="R20">
+        <v>12.47465908337993</v>
+      </c>
+      <c r="S20">
+        <v>13.35408083897014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.434707181683535</v>
+        <v>5.048170910228724</v>
       </c>
       <c r="D21">
-        <v>5.618750471077124</v>
+        <v>5.899247835046387</v>
       </c>
       <c r="E21">
-        <v>17.33929760244977</v>
+        <v>17.37951666504481</v>
       </c>
       <c r="F21">
-        <v>19.25716541900739</v>
+        <v>18.13005072743056</v>
       </c>
       <c r="G21">
-        <v>23.98151021236117</v>
+        <v>24.34369628832951</v>
       </c>
       <c r="H21">
-        <v>2.989341504880931</v>
+        <v>2.918668992377133</v>
       </c>
       <c r="I21">
-        <v>4.541810812258238</v>
+        <v>4.36824923645545</v>
       </c>
       <c r="J21">
-        <v>8.3821584901925</v>
+        <v>7.873767650363265</v>
       </c>
       <c r="K21">
-        <v>14.92132218146915</v>
+        <v>13.74060577547974</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.77050697731425</v>
       </c>
       <c r="M21">
-        <v>21.13352893446203</v>
+        <v>9.354385117661279</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.00870308908263</v>
+        <v>20.63412123270288</v>
       </c>
       <c r="P21">
-        <v>12.26269562148759</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.2480831898217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.7963537996988</v>
+      </c>
+      <c r="R21">
+        <v>12.51639162932499</v>
+      </c>
+      <c r="S21">
+        <v>13.4163925409362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.66620283223191</v>
+        <v>5.240197379590304</v>
       </c>
       <c r="D22">
-        <v>5.763226138679913</v>
+        <v>6.093925308360451</v>
       </c>
       <c r="E22">
-        <v>17.82390660763571</v>
+        <v>17.88496180886614</v>
       </c>
       <c r="F22">
-        <v>19.72571543527072</v>
+        <v>18.35848124640092</v>
       </c>
       <c r="G22">
-        <v>24.63714934491914</v>
+        <v>26.2749907061368</v>
       </c>
       <c r="H22">
-        <v>3.137896810813229</v>
+        <v>3.058065127994439</v>
       </c>
       <c r="I22">
-        <v>4.661378816738558</v>
+        <v>4.464919909003657</v>
       </c>
       <c r="J22">
-        <v>8.43336595597601</v>
+        <v>7.431513302208809</v>
       </c>
       <c r="K22">
-        <v>15.18645979971168</v>
+        <v>13.8144495851407</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.66512267054622</v>
       </c>
       <c r="M22">
-        <v>21.83642587183662</v>
+        <v>9.667380855774347</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.70127060450357</v>
+        <v>21.25031697889761</v>
       </c>
       <c r="P22">
-        <v>12.25268643894361</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.4603276219476</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.44935547528594</v>
+      </c>
+      <c r="R22">
+        <v>12.55967661736919</v>
+      </c>
+      <c r="S22">
+        <v>13.43502217310949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.581325279255368</v>
+        <v>5.163834472360935</v>
       </c>
       <c r="D23">
-        <v>5.682433845205577</v>
+        <v>5.980772598828711</v>
       </c>
       <c r="E23">
-        <v>17.56470983708582</v>
+        <v>17.6112280804474</v>
       </c>
       <c r="F23">
-        <v>19.49671499640978</v>
+        <v>18.28480253009321</v>
       </c>
       <c r="G23">
-        <v>24.32510682753792</v>
+        <v>25.06786009705483</v>
       </c>
       <c r="H23">
-        <v>3.059447615878556</v>
+        <v>2.984977662215237</v>
       </c>
       <c r="I23">
-        <v>4.596653304201745</v>
+        <v>4.411975220988611</v>
       </c>
       <c r="J23">
-        <v>8.412390112654595</v>
+        <v>7.73756844061793</v>
       </c>
       <c r="K23">
-        <v>15.07123536102891</v>
+        <v>13.81737824197146</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.74838043818502</v>
       </c>
       <c r="M23">
-        <v>21.4717468748282</v>
+        <v>9.537082773097959</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.33778675407521</v>
+        <v>20.94143927062994</v>
       </c>
       <c r="P23">
-        <v>12.25429360173945</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.36321024328674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.11145097521626</v>
+      </c>
+      <c r="R23">
+        <v>12.52747603442033</v>
+      </c>
+      <c r="S23">
+        <v>13.4625154056116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.17928869092422</v>
+        <v>4.847295055057421</v>
       </c>
       <c r="D24">
-        <v>5.372402163054022</v>
+        <v>5.577300561585425</v>
       </c>
       <c r="E24">
-        <v>16.55290312496797</v>
+        <v>16.56398398689932</v>
       </c>
       <c r="F24">
-        <v>18.58999198357483</v>
+        <v>17.81613455673857</v>
       </c>
       <c r="G24">
-        <v>23.07182610347235</v>
+        <v>21.59842264801072</v>
       </c>
       <c r="H24">
-        <v>2.755005444119719</v>
+        <v>2.698603630416672</v>
       </c>
       <c r="I24">
-        <v>4.34802595789777</v>
+        <v>4.20708297229605</v>
       </c>
       <c r="J24">
-        <v>8.328509511693364</v>
+        <v>8.613982700964891</v>
       </c>
       <c r="K24">
-        <v>14.59220601941206</v>
+        <v>13.68886691109083</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.9786741564714</v>
       </c>
       <c r="M24">
-        <v>20.01506105290664</v>
+        <v>8.920385815733049</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.89677070872467</v>
+        <v>19.64710369025265</v>
       </c>
       <c r="P24">
-        <v>12.27154374747964</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.97690226179347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.74393211868776</v>
+      </c>
+      <c r="R24">
+        <v>12.44928212799582</v>
+      </c>
+      <c r="S24">
+        <v>13.42316499687681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.70306393407615</v>
+        <v>4.550507413116855</v>
       </c>
       <c r="D25">
-        <v>5.015466333333214</v>
+        <v>5.179260576180074</v>
       </c>
       <c r="E25">
-        <v>15.39141689410012</v>
+        <v>15.39979064644004</v>
       </c>
       <c r="F25">
-        <v>17.60348040274187</v>
+        <v>16.9990997699388</v>
       </c>
       <c r="G25">
-        <v>21.70085531390292</v>
+        <v>20.21520542479877</v>
       </c>
       <c r="H25">
-        <v>2.412283762136587</v>
+        <v>2.369002393712093</v>
       </c>
       <c r="I25">
-        <v>4.068915025772651</v>
+        <v>3.966840627785146</v>
       </c>
       <c r="J25">
-        <v>8.251226059324205</v>
+        <v>8.637952062569717</v>
       </c>
       <c r="K25">
-        <v>14.07722126072654</v>
+        <v>13.35815357276764</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.1009744087327</v>
       </c>
       <c r="M25">
-        <v>18.30848715878617</v>
+        <v>8.093561030468537</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.21747741206017</v>
+        <v>18.00968446268262</v>
       </c>
       <c r="P25">
-        <v>12.30096356857299</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.57871784765612</v>
+        <v>18.09414778581027</v>
+      </c>
+      <c r="R25">
+        <v>12.4314166831929</v>
+      </c>
+      <c r="S25">
+        <v>13.15652838050805</v>
       </c>
     </row>
   </sheetData>
